--- a/QA Testing Table.xlsx
+++ b/QA Testing Table.xlsx
@@ -1771,9 +1771,88 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1788,48 +1867,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1857,18 +1897,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1881,55 +1949,55 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1938,42 +2006,30 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1981,109 +2037,46 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2519,6 +2512,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2831,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,7 +2840,7 @@
     <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -2886,7 +2886,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="81" t="s">
         <v>351</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2897,7 +2897,7 @@
         <f>Home!D5</f>
         <v>3</v>
       </c>
-      <c r="E2" s="151">
+      <c r="E2" s="64">
         <f>Home!I5</f>
         <v>3</v>
       </c>
@@ -2905,21 +2905,21 @@
         <f t="shared" ref="F2:F26" si="0">D2/E2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="72">
+      <c r="G2" s="82">
         <f>SUM(D2:D3)</f>
         <v>5</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="76">
         <f>Home!D10</f>
         <v>1</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="76">
         <f>Home!E9</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="71"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="8" t="s">
         <v>186</v>
       </c>
@@ -2928,7 +2928,7 @@
         <f>Home!D8</f>
         <v>2</v>
       </c>
-      <c r="E3" s="151">
+      <c r="E3" s="64">
         <f>Home!I8</f>
         <v>2</v>
       </c>
@@ -2936,12 +2936,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="84" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2956,22 +2956,22 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="88">
         <f>SUM(E4:E12)</f>
         <v>65</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="76">
         <f>Explore!D83</f>
         <v>0.66153846153846152</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="76">
         <f>Explore!E82</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75"/>
-      <c r="B5" s="78" t="s">
+      <c r="A5" s="84"/>
+      <c r="B5" s="73" t="s">
         <v>189</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2989,13 +2989,13 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="75"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="3" t="s">
         <v>339</v>
       </c>
@@ -3011,13 +3011,13 @@
         <f t="shared" si="0"/>
         <v>0.6071428571428571</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75"/>
-      <c r="B7" s="79"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="3" t="s">
         <v>340</v>
       </c>
@@ -3033,12 +3033,12 @@
         <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="75"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="3" t="s">
         <v>190</v>
       </c>
@@ -3051,12 +3051,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="75"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="3" t="s">
         <v>191</v>
       </c>
@@ -3069,12 +3069,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="75"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="3" t="s">
         <v>192</v>
       </c>
@@ -3087,12 +3087,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="75"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="3" t="s">
         <v>193</v>
       </c>
@@ -3105,12 +3105,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="75"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="3" t="s">
         <v>194</v>
       </c>
@@ -3123,12 +3123,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="85" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -3143,12 +3143,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="58"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="76"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="8" t="s">
         <v>196</v>
       </c>
@@ -3161,12 +3161,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="59"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="95"/>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="76"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="8" t="s">
         <v>197</v>
       </c>
@@ -3179,12 +3179,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="59"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="76"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="8" t="s">
         <v>198</v>
       </c>
@@ -3197,12 +3197,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="59"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="95"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="76"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="8" t="s">
         <v>199</v>
       </c>
@@ -3215,12 +3215,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="59"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="76"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="8" t="s">
         <v>200</v>
       </c>
@@ -3233,12 +3233,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="60"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="96"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="69" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3253,21 +3253,21 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G19" s="161">
+      <c r="G19" s="78">
         <f>SUM(E19:E25)</f>
         <v>45</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="76">
         <f>Assemble!D57</f>
         <v>0.35555555555555557</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="76">
         <f>Assemble!E56</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="159"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="3" t="s">
         <v>202</v>
       </c>
@@ -3280,13 +3280,13 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G20" s="79"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="159"/>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="70"/>
+      <c r="B21" s="73" t="s">
         <v>141</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -3304,13 +3304,13 @@
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="160"/>
-      <c r="B22" s="79"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="3" t="s">
         <v>433</v>
       </c>
@@ -3326,13 +3326,13 @@
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="160"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="3" t="s">
         <v>434</v>
       </c>
@@ -3348,13 +3348,13 @@
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="160"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="3" t="s">
         <v>435</v>
       </c>
@@ -3370,13 +3370,13 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="71"/>
-      <c r="B25" s="73"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="3" t="s">
         <v>436</v>
       </c>
@@ -3392,9 +3392,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
@@ -3415,10 +3415,10 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="88" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -3436,22 +3436,22 @@
         <f>D27/E27</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="G27" s="65">
+      <c r="G27" s="92">
         <f>SUM(E27:E34)</f>
         <v>82</v>
       </c>
-      <c r="H27" s="67">
+      <c r="H27" s="76">
         <f>'DMDII Portal'!D93</f>
         <v>0.95121951219512191</v>
       </c>
-      <c r="I27" s="67">
+      <c r="I27" s="76">
         <f>'DMDII Portal'!E92</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="75"/>
-      <c r="B28" s="61"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="9" t="s">
         <v>18</v>
       </c>
@@ -3467,13 +3467,13 @@
         <f t="shared" ref="F28:F41" si="1">D28/E28</f>
         <v>1</v>
       </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="75"/>
-      <c r="B29" s="61"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="9" t="s">
         <v>38</v>
       </c>
@@ -3489,13 +3489,13 @@
         <f t="shared" si="1"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="75"/>
-      <c r="B30" s="61" t="s">
+      <c r="A30" s="84"/>
+      <c r="B30" s="88" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -3513,13 +3513,13 @@
         <f t="shared" si="1"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="G30" s="66"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="75"/>
-      <c r="B31" s="61"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="9" t="s">
         <v>62</v>
       </c>
@@ -3535,13 +3535,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="75"/>
-      <c r="B32" s="61"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="9" t="s">
         <v>39</v>
       </c>
@@ -3557,13 +3557,13 @@
         <f t="shared" si="1"/>
         <v>0.9375</v>
       </c>
-      <c r="G32" s="66"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
     </row>
     <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="75"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="9" t="s">
         <v>77</v>
       </c>
@@ -3579,12 +3579,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G33" s="66"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="75"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
@@ -3603,12 +3603,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G34" s="66"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="81" t="s">
         <v>211</v>
       </c>
       <c r="B35" s="18" t="s">
@@ -3617,31 +3617,31 @@
       <c r="C35" s="16"/>
       <c r="D35" s="22">
         <f>'UserDrop-down'!D10</f>
-        <v>5</v>
-      </c>
-      <c r="E35" s="164">
+        <v>6</v>
+      </c>
+      <c r="E35" s="67">
         <f>'UserDrop-down'!I10</f>
         <v>8</v>
       </c>
       <c r="F35" s="23">
         <f t="shared" si="1"/>
-        <v>0.625</v>
-      </c>
-      <c r="G35" s="72">
+        <v>0.75</v>
+      </c>
+      <c r="G35" s="82">
         <f>SUM(E35:E41)</f>
         <v>50</v>
       </c>
-      <c r="H35" s="67">
+      <c r="H35" s="76">
         <f>'UserDrop-down'!D62</f>
-        <v>0.6</v>
-      </c>
-      <c r="I35" s="67">
+        <v>0.62</v>
+      </c>
+      <c r="I35" s="76">
         <f>'UserDrop-down'!E61</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="77"/>
+      <c r="A36" s="86"/>
       <c r="B36" s="8" t="s">
         <v>140</v>
       </c>
@@ -3650,7 +3650,7 @@
         <f>'UserDrop-down'!D30</f>
         <v>12</v>
       </c>
-      <c r="E36" s="164">
+      <c r="E36" s="67">
         <f>'UserDrop-down'!I30</f>
         <v>19</v>
       </c>
@@ -3658,12 +3658,12 @@
         <f t="shared" si="1"/>
         <v>0.63157894736842102</v>
       </c>
-      <c r="G36" s="80"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
     </row>
     <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="77"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="20" t="s">
         <v>350</v>
       </c>
@@ -3672,7 +3672,7 @@
         <f>'UserDrop-down'!D42</f>
         <v>2</v>
       </c>
-      <c r="E37" s="164">
+      <c r="E37" s="67">
         <f>'UserDrop-down'!I42</f>
         <v>11</v>
       </c>
@@ -3680,12 +3680,12 @@
         <f>D37/E37</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="G37" s="80"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
     </row>
     <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="77"/>
+      <c r="A38" s="86"/>
       <c r="B38" s="8" t="s">
         <v>142</v>
       </c>
@@ -3694,7 +3694,7 @@
         <f>'UserDrop-down'!D50</f>
         <v>6</v>
       </c>
-      <c r="E38" s="164">
+      <c r="E38" s="67">
         <f>'UserDrop-down'!I50</f>
         <v>7</v>
       </c>
@@ -3702,12 +3702,12 @@
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G38" s="80"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
     </row>
     <row r="39" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="77"/>
+      <c r="A39" s="86"/>
       <c r="B39" s="8" t="s">
         <v>143</v>
       </c>
@@ -3716,7 +3716,7 @@
         <f>'UserDrop-down'!D52</f>
         <v>1</v>
       </c>
-      <c r="E39" s="164">
+      <c r="E39" s="67">
         <f>'UserDrop-down'!I52</f>
         <v>1</v>
       </c>
@@ -3724,12 +3724,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G39" s="80"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
     </row>
     <row r="40" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="77"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="8" t="s">
         <v>144</v>
       </c>
@@ -3738,7 +3738,7 @@
         <f>'UserDrop-down'!D56</f>
         <v>2</v>
       </c>
-      <c r="E40" s="164">
+      <c r="E40" s="67">
         <f>'UserDrop-down'!I56</f>
         <v>1</v>
       </c>
@@ -3746,12 +3746,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G40" s="80"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
     </row>
     <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="71"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="8" t="s">
         <v>145</v>
       </c>
@@ -3760,7 +3760,7 @@
         <f>'UserDrop-down'!D60</f>
         <v>2</v>
       </c>
-      <c r="E41" s="164">
+      <c r="E41" s="67">
         <f>'UserDrop-down'!I60</f>
         <v>3</v>
       </c>
@@ -3768,9 +3768,9 @@
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G41" s="73"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
     </row>
     <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
@@ -3805,20 +3805,20 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="166" t="s">
+      <c r="A43" s="80" t="s">
         <v>343</v>
       </c>
-      <c r="B43" s="166"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="166"/>
-      <c r="E43" s="166"/>
-      <c r="F43" s="166"/>
-      <c r="G43" s="166"/>
-      <c r="H43" s="165">
-        <f>(SUM(D2:D3,D5:D7,D27:D42)/SUM(E2:E3,E5:E7,E27:E42))</f>
-        <v>0.77403846153846156</v>
-      </c>
-      <c r="I43" s="165"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="68">
+        <f>(SUM(D2:D3,D5:D7,D27:D42,D21:D25)/SUM(E2:E3,E5:E7,E27:E42,E21:E25))</f>
+        <v>0.70355731225296447</v>
+      </c>
+      <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C44" s="5"/>
@@ -3836,7 +3836,7 @@
       <c r="H45" t="s">
         <v>437</v>
       </c>
-      <c r="I45" s="162">
+      <c r="I45" s="65">
         <v>1</v>
       </c>
     </row>
@@ -4070,11 +4070,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="I19:I25"/>
-    <mergeCell ref="G19:G25"/>
+    <mergeCell ref="G4:G12"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="G27:G34"/>
+    <mergeCell ref="I35:I41"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I12"/>
+    <mergeCell ref="I13:I18"/>
+    <mergeCell ref="I27:I34"/>
     <mergeCell ref="H35:H41"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="A2:A3"/>
@@ -4091,14 +4094,11 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="G4:G12"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="G27:G34"/>
-    <mergeCell ref="I35:I41"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I12"/>
-    <mergeCell ref="I13:I18"/>
-    <mergeCell ref="I27:I34"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="I19:I25"/>
+    <mergeCell ref="G19:G25"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:H21 H26:H44 I43">
     <cfRule type="dataBar" priority="7">
@@ -4115,7 +4115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F42">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4325,29 +4325,29 @@
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="88" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="61"/>
+      <c r="C26" s="88"/>
     </row>
     <row r="27" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="61"/>
+      <c r="C27" s="88"/>
     </row>
     <row r="28" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="61"/>
+      <c r="C29" s="88"/>
     </row>
     <row r="30" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="61"/>
+      <c r="C30" s="88"/>
     </row>
     <row r="31" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="61"/>
+      <c r="C31" s="88"/>
     </row>
     <row r="32" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="19" t="s">
@@ -4365,12 +4365,12 @@
       </c>
     </row>
     <row r="35" spans="3:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="82" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="36" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="73"/>
+      <c r="C36" s="75"/>
     </row>
     <row r="37" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="8" t="s">
@@ -4450,12 +4450,12 @@
       <c r="G1" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="163" t="s">
+      <c r="I1" s="66" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="100" t="s">
         <v>173</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -4483,7 +4483,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="84"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
@@ -4509,7 +4509,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="84"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
@@ -4535,11 +4535,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="4">
         <f>SUM(D2:D4)</f>
         <v>3</v>
@@ -4552,7 +4552,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="101" t="s">
         <v>174</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -4580,7 +4580,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="85"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="26" t="s">
         <v>172</v>
       </c>
@@ -4606,11 +4606,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="4">
         <f>SUM(D6:D7)</f>
         <v>2</v>
@@ -4623,11 +4623,11 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="48">
         <f>SUM(D5,D8)</f>
         <v>5</v>
@@ -4645,11 +4645,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="46">
         <f>D9/'Site Map QAHealth Rating'!G2</f>
         <v>1</v>
@@ -4669,32 +4669,32 @@
     <mergeCell ref="A9:C9"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D4 D6:D7">
-    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="8" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4 F6:F7">
-    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4746,7 +4746,7 @@
       <c r="G1" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="163" t="s">
+      <c r="I1" s="66" t="s">
         <v>449</v>
       </c>
     </row>
@@ -4767,11 +4767,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="120"/>
       <c r="D3" s="4">
         <f>SUM(D2)</f>
         <v>0</v>
@@ -4782,7 +4782,7 @@
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="124" t="s">
         <v>279</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -4807,7 +4807,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="99"/>
+      <c r="A5" s="125"/>
       <c r="B5" s="38" t="s">
         <v>297</v>
       </c>
@@ -4830,7 +4830,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="100"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="38" t="s">
         <v>281</v>
       </c>
@@ -4853,7 +4853,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="100"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="29" t="s">
         <v>289</v>
       </c>
@@ -4876,7 +4876,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="29" t="s">
         <v>282</v>
       </c>
@@ -4899,7 +4899,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="29" t="s">
         <v>283</v>
       </c>
@@ -4922,7 +4922,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="29" t="s">
         <v>217</v>
       </c>
@@ -4945,7 +4945,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="100"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="29" t="s">
         <v>284</v>
       </c>
@@ -4968,7 +4968,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="101"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="29" t="s">
         <v>369</v>
       </c>
@@ -4991,11 +4991,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="4">
         <f>SUM(D4:D12)</f>
         <v>6</v>
@@ -5009,13 +5009,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="111" t="s">
         <v>323</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="111" t="s">
         <v>296</v>
       </c>
       <c r="D14" s="13">
@@ -5034,11 +5034,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="103"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="100"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="13">
         <v>1</v>
       </c>
@@ -5055,11 +5055,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="103"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="13">
         <v>1</v>
       </c>
@@ -5076,11 +5076,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="103"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="100"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="13">
         <v>1</v>
       </c>
@@ -5097,11 +5097,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="103"/>
+      <c r="A18" s="112"/>
       <c r="B18" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="100"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="13">
         <v>0</v>
       </c>
@@ -5118,11 +5118,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="103"/>
+      <c r="A19" s="112"/>
       <c r="B19" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="C19" s="101"/>
+      <c r="C19" s="116"/>
       <c r="D19" s="13">
         <v>0</v>
       </c>
@@ -5139,7 +5139,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="103"/>
+      <c r="A20" s="112"/>
       <c r="B20" s="28" t="s">
         <v>231</v>
       </c>
@@ -5163,7 +5163,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="103"/>
+      <c r="A21" s="112"/>
       <c r="B21" s="28" t="s">
         <v>232</v>
       </c>
@@ -5184,7 +5184,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="103"/>
+      <c r="A22" s="112"/>
       <c r="B22" s="28" t="s">
         <v>322</v>
       </c>
@@ -5205,7 +5205,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="103"/>
+      <c r="A23" s="112"/>
       <c r="B23" s="30" t="s">
         <v>224</v>
       </c>
@@ -5228,11 +5228,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="103"/>
+      <c r="A24" s="112"/>
       <c r="B24" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="111" t="s">
         <v>296</v>
       </c>
       <c r="D24" s="13">
@@ -5252,11 +5252,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="103"/>
+      <c r="A25" s="112"/>
       <c r="B25" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="103"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="13">
         <v>0</v>
       </c>
@@ -5274,11 +5274,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="103"/>
+      <c r="A26" s="112"/>
       <c r="B26" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="C26" s="100"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="13">
         <v>0</v>
       </c>
@@ -5296,11 +5296,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="103"/>
+      <c r="A27" s="112"/>
       <c r="B27" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="100"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="13">
         <v>0</v>
       </c>
@@ -5318,11 +5318,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="103"/>
+      <c r="A28" s="112"/>
       <c r="B28" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="C28" s="100"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="13">
         <v>1</v>
       </c>
@@ -5340,11 +5340,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="103"/>
+      <c r="A29" s="112"/>
       <c r="B29" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="C29" s="100"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="13">
         <v>1</v>
       </c>
@@ -5362,11 +5362,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="103"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="C30" s="104"/>
+      <c r="C30" s="114"/>
       <c r="D30" s="13">
         <v>0</v>
       </c>
@@ -5384,11 +5384,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="103"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="C31" s="104"/>
+      <c r="C31" s="114"/>
       <c r="D31" s="13">
         <v>0</v>
       </c>
@@ -5406,11 +5406,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="103"/>
+      <c r="A32" s="112"/>
       <c r="B32" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="C32" s="105"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="13">
         <v>0</v>
       </c>
@@ -5428,7 +5428,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="113"/>
       <c r="B33" s="28" t="s">
         <v>240</v>
       </c>
@@ -5452,7 +5452,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="113"/>
       <c r="B34" s="28" t="s">
         <v>389</v>
       </c>
@@ -5476,7 +5476,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="113"/>
       <c r="B35" s="28" t="s">
         <v>241</v>
       </c>
@@ -5500,7 +5500,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="100"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="28" t="s">
         <v>242</v>
       </c>
@@ -5524,7 +5524,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="100"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="28" t="s">
         <v>244</v>
       </c>
@@ -5548,7 +5548,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="113"/>
       <c r="B38" s="28" t="s">
         <v>352</v>
       </c>
@@ -5572,7 +5572,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="113"/>
       <c r="B39" s="28" t="s">
         <v>233</v>
       </c>
@@ -5596,7 +5596,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="113"/>
       <c r="B40" s="28" t="s">
         <v>234</v>
       </c>
@@ -5620,7 +5620,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="101"/>
+      <c r="A41" s="116"/>
       <c r="B41" s="28" t="s">
         <v>235</v>
       </c>
@@ -5644,11 +5644,11 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
       <c r="D42" s="4">
         <f>SUM(D14:D41)</f>
         <v>17</v>
@@ -5662,7 +5662,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="117" t="s">
         <v>285</v>
       </c>
       <c r="B43" s="36" t="s">
@@ -5688,7 +5688,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="106"/>
+      <c r="A44" s="117"/>
       <c r="B44" s="36" t="s">
         <v>248</v>
       </c>
@@ -5712,11 +5712,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="106"/>
+      <c r="A45" s="117"/>
       <c r="B45" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="C45" s="107" t="s">
+      <c r="C45" s="118" t="s">
         <v>275</v>
       </c>
       <c r="D45" s="13">
@@ -5736,11 +5736,11 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="106"/>
+      <c r="A46" s="117"/>
       <c r="B46" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="C46" s="107"/>
+      <c r="C46" s="118"/>
       <c r="D46" s="13">
         <v>1</v>
       </c>
@@ -5758,11 +5758,11 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="106"/>
+      <c r="A47" s="117"/>
       <c r="B47" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="107"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="13">
         <v>1</v>
       </c>
@@ -5780,11 +5780,11 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="106"/>
+      <c r="A48" s="117"/>
       <c r="B48" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="107"/>
+      <c r="C48" s="118"/>
       <c r="D48" s="13">
         <v>0</v>
       </c>
@@ -5805,11 +5805,11 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="106"/>
+      <c r="A49" s="117"/>
       <c r="B49" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="107"/>
+      <c r="C49" s="118"/>
       <c r="D49" s="13">
         <v>1</v>
       </c>
@@ -5827,11 +5827,11 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="106"/>
+      <c r="A50" s="117"/>
       <c r="B50" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="107"/>
+      <c r="C50" s="118"/>
       <c r="D50" s="13">
         <v>1</v>
       </c>
@@ -5849,11 +5849,11 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="106"/>
+      <c r="A51" s="117"/>
       <c r="B51" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="107"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="13">
         <v>1</v>
       </c>
@@ -5871,11 +5871,11 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="106"/>
+      <c r="A52" s="117"/>
       <c r="B52" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="107"/>
+      <c r="C52" s="118"/>
       <c r="D52" s="13">
         <v>1</v>
       </c>
@@ -5892,11 +5892,11 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="106"/>
+      <c r="A53" s="117"/>
       <c r="B53" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="107"/>
+      <c r="C53" s="118"/>
       <c r="D53" s="13">
         <v>1</v>
       </c>
@@ -5913,11 +5913,11 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="106"/>
+      <c r="A54" s="117"/>
       <c r="B54" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="107"/>
+      <c r="C54" s="118"/>
       <c r="D54" s="13">
         <v>1</v>
       </c>
@@ -5934,11 +5934,11 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="106"/>
+      <c r="A55" s="117"/>
       <c r="B55" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="107"/>
+      <c r="C55" s="118"/>
       <c r="D55" s="13">
         <v>0</v>
       </c>
@@ -5955,11 +5955,11 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="106"/>
+      <c r="A56" s="117"/>
       <c r="B56" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="107"/>
+      <c r="C56" s="118"/>
       <c r="D56" s="13">
         <v>1</v>
       </c>
@@ -5976,11 +5976,11 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="106"/>
+      <c r="A57" s="117"/>
       <c r="B57" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="107"/>
+      <c r="C57" s="118"/>
       <c r="D57" s="13">
         <v>0</v>
       </c>
@@ -5997,11 +5997,11 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="106"/>
+      <c r="A58" s="117"/>
       <c r="B58" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="C58" s="107"/>
+      <c r="C58" s="118"/>
       <c r="D58" s="13">
         <v>1</v>
       </c>
@@ -6018,11 +6018,11 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="106"/>
+      <c r="A59" s="117"/>
       <c r="B59" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="C59" s="107"/>
+      <c r="C59" s="118"/>
       <c r="D59" s="13">
         <v>0</v>
       </c>
@@ -6039,11 +6039,11 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="106"/>
+      <c r="A60" s="117"/>
       <c r="B60" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="C60" s="107"/>
+      <c r="C60" s="118"/>
       <c r="D60" s="13">
         <v>1</v>
       </c>
@@ -6060,11 +6060,11 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="106"/>
+      <c r="A61" s="117"/>
       <c r="B61" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="C61" s="107"/>
+      <c r="C61" s="118"/>
       <c r="D61" s="13">
         <v>0</v>
       </c>
@@ -6081,11 +6081,11 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="106"/>
+      <c r="A62" s="117"/>
       <c r="B62" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="107"/>
+      <c r="C62" s="118"/>
       <c r="D62" s="13">
         <v>1</v>
       </c>
@@ -6102,11 +6102,11 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="106"/>
+      <c r="A63" s="117"/>
       <c r="B63" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="C63" s="107"/>
+      <c r="C63" s="118"/>
       <c r="D63" s="13">
         <v>0</v>
       </c>
@@ -6123,11 +6123,11 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="106"/>
+      <c r="A64" s="117"/>
       <c r="B64" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="C64" s="107"/>
+      <c r="C64" s="118"/>
       <c r="D64" s="13">
         <v>0</v>
       </c>
@@ -6144,11 +6144,11 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="106"/>
+      <c r="A65" s="117"/>
       <c r="B65" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="C65" s="107"/>
+      <c r="C65" s="118"/>
       <c r="D65" s="13">
         <v>0</v>
       </c>
@@ -6165,11 +6165,11 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="106"/>
+      <c r="A66" s="117"/>
       <c r="B66" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="C66" s="107"/>
+      <c r="C66" s="118"/>
       <c r="D66" s="13">
         <v>1</v>
       </c>
@@ -6186,11 +6186,11 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="106"/>
+      <c r="A67" s="117"/>
       <c r="B67" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="C67" s="107"/>
+      <c r="C67" s="118"/>
       <c r="D67" s="13">
         <v>1</v>
       </c>
@@ -6207,11 +6207,11 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="106"/>
+      <c r="A68" s="117"/>
       <c r="B68" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="C68" s="107"/>
+      <c r="C68" s="118"/>
       <c r="D68" s="13">
         <v>1</v>
       </c>
@@ -6228,11 +6228,11 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="84"/>
+      <c r="A69" s="100"/>
       <c r="B69" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="C69" s="107"/>
+      <c r="C69" s="118"/>
       <c r="D69" s="13">
         <v>1</v>
       </c>
@@ -6249,11 +6249,11 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="84"/>
+      <c r="A70" s="100"/>
       <c r="B70" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="C70" s="107"/>
+      <c r="C70" s="118"/>
       <c r="D70" s="13">
         <v>1</v>
       </c>
@@ -6270,11 +6270,11 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="86" t="s">
+      <c r="A71" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="93"/>
-      <c r="C71" s="94"/>
+      <c r="B71" s="119"/>
+      <c r="C71" s="120"/>
       <c r="D71" s="4">
         <f>SUM(D43:D70)</f>
         <v>20</v>
@@ -6304,11 +6304,11 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="92" t="s">
+      <c r="A73" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="93"/>
-      <c r="C73" s="94"/>
+      <c r="B73" s="119"/>
+      <c r="C73" s="120"/>
       <c r="D73" s="4">
         <f>SUM(D72)</f>
         <v>0</v>
@@ -6335,11 +6335,11 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="92" t="s">
+      <c r="A75" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="B75" s="93"/>
-      <c r="C75" s="93"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="119"/>
       <c r="D75" s="11">
         <f>SUM(D74)</f>
         <v>0</v>
@@ -6366,11 +6366,11 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="92" t="s">
+      <c r="A77" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="93"/>
-      <c r="C77" s="93"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="119"/>
       <c r="D77" s="11">
         <f>SUM(D76)</f>
         <v>0</v>
@@ -6397,11 +6397,11 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="92" t="s">
+      <c r="A79" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="B79" s="93"/>
-      <c r="C79" s="93"/>
+      <c r="B79" s="119"/>
+      <c r="C79" s="119"/>
       <c r="D79" s="11">
         <f>SUM(D78)</f>
         <v>0</v>
@@ -6430,11 +6430,11 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="96" t="s">
+      <c r="A81" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="B81" s="96"/>
-      <c r="C81" s="96"/>
+      <c r="B81" s="122"/>
+      <c r="C81" s="122"/>
       <c r="D81" s="4">
         <f>SUM(D80)</f>
         <v>0</v>
@@ -6445,11 +6445,11 @@
       <c r="I81" s="44"/>
     </row>
     <row r="82" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="95" t="s">
+      <c r="A82" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="B82" s="95"/>
-      <c r="C82" s="95"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
       <c r="D82" s="12">
         <f>SUM(D3, D13, D42, D71, D73, D75, D77, D79, D81)</f>
         <v>43</v>
@@ -6467,24 +6467,32 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="76.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="95" t="s">
+      <c r="A83" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="B83" s="95"/>
-      <c r="C83" s="95"/>
+      <c r="B83" s="110"/>
+      <c r="C83" s="110"/>
       <c r="D83" s="46">
         <f>D82/'Site Map QAHealth Rating'!G4</f>
         <v>0.66153846153846152</v>
       </c>
-      <c r="E83" s="136" t="s">
+      <c r="E83" s="108" t="s">
         <v>374</v>
       </c>
-      <c r="F83" s="137"/>
-      <c r="G83" s="137"/>
+      <c r="F83" s="109"/>
+      <c r="G83" s="109"/>
     </row>
     <row r="84" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="C14:C19"/>
     <mergeCell ref="E83:G83"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="C24:C32"/>
@@ -6495,45 +6503,37 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:C79"/>
     <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="C14:C19"/>
   </mergeCells>
   <conditionalFormatting sqref="D2 D4:D12 D43:D70 D72 D74 D76 D78 D80 D14:D41">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2 F4:F12 F43:F70 F72 F74 F76 F78 F80 F14:F41">
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6589,7 +6589,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="133" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -6614,7 +6614,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="109"/>
+      <c r="A3" s="133"/>
       <c r="B3" s="31" t="s">
         <v>20</v>
       </c>
@@ -6637,7 +6637,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="109"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="31" t="s">
         <v>21</v>
       </c>
@@ -6660,7 +6660,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="109"/>
+      <c r="A5" s="133"/>
       <c r="B5" s="31" t="s">
         <v>22</v>
       </c>
@@ -6683,7 +6683,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="109"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="31" t="s">
         <v>57</v>
       </c>
@@ -6706,7 +6706,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="109"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="31" t="s">
         <v>103</v>
       </c>
@@ -6729,7 +6729,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="109"/>
+      <c r="A8" s="133"/>
       <c r="B8" s="31" t="s">
         <v>26</v>
       </c>
@@ -6752,7 +6752,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="109"/>
+      <c r="A9" s="133"/>
       <c r="B9" s="31" t="s">
         <v>23</v>
       </c>
@@ -6775,7 +6775,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="109"/>
+      <c r="A10" s="133"/>
       <c r="B10" s="31" t="s">
         <v>24</v>
       </c>
@@ -6798,7 +6798,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="109"/>
+      <c r="A11" s="133"/>
       <c r="B11" s="31" t="s">
         <v>25</v>
       </c>
@@ -6821,7 +6821,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="109"/>
+      <c r="A12" s="133"/>
       <c r="B12" s="31" t="s">
         <v>27</v>
       </c>
@@ -6844,7 +6844,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="109"/>
+      <c r="A13" s="133"/>
       <c r="B13" s="31" t="s">
         <v>28</v>
       </c>
@@ -6867,7 +6867,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="85"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="31" t="s">
         <v>369</v>
       </c>
@@ -6890,11 +6890,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="27">
         <f>SUM(D2:D14)</f>
         <v>12</v>
@@ -6908,13 +6908,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="138" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="127" t="s">
         <v>111</v>
       </c>
       <c r="D16" s="32">
@@ -6933,11 +6933,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="115"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="100"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="32">
         <v>1</v>
       </c>
@@ -6954,11 +6954,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="115"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="100"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="32">
         <v>1</v>
       </c>
@@ -6975,11 +6975,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="115"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="C19" s="100"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="32">
         <v>1</v>
       </c>
@@ -6996,11 +6996,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="115"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="100"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="32">
         <v>1</v>
       </c>
@@ -7017,11 +7017,11 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="115"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="100"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="32">
         <v>1</v>
       </c>
@@ -7038,11 +7038,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="115"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="100"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="32">
         <v>1</v>
       </c>
@@ -7062,11 +7062,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="115"/>
+      <c r="A23" s="138"/>
       <c r="B23" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="100"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="32">
         <v>1</v>
       </c>
@@ -7083,11 +7083,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="115"/>
+      <c r="A24" s="138"/>
       <c r="B24" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="101"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="32">
         <v>1</v>
       </c>
@@ -7104,11 +7104,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
       <c r="D25" s="27">
         <f>SUM(D16:D24)</f>
         <v>9</v>
@@ -7122,7 +7122,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="109" t="s">
+      <c r="A26" s="133" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="31" t="s">
@@ -7150,7 +7150,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="109"/>
+      <c r="A27" s="133"/>
       <c r="B27" s="31" t="s">
         <v>41</v>
       </c>
@@ -7173,7 +7173,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="109"/>
+      <c r="A28" s="133"/>
       <c r="B28" s="31" t="s">
         <v>42</v>
       </c>
@@ -7196,11 +7196,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="109"/>
+      <c r="A29" s="133"/>
       <c r="B29" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="110" t="s">
+      <c r="C29" s="128" t="s">
         <v>115</v>
       </c>
       <c r="D29" s="31">
@@ -7219,11 +7219,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="109"/>
+      <c r="A30" s="133"/>
       <c r="B30" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="100"/>
+      <c r="C30" s="113"/>
       <c r="D30" s="31">
         <v>1</v>
       </c>
@@ -7240,11 +7240,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="109"/>
+      <c r="A31" s="133"/>
       <c r="B31" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="100"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="31">
         <v>1</v>
       </c>
@@ -7264,11 +7264,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="109"/>
+      <c r="A32" s="133"/>
       <c r="B32" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="100"/>
+      <c r="C32" s="113"/>
       <c r="D32" s="31">
         <v>1</v>
       </c>
@@ -7285,11 +7285,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="109"/>
+      <c r="A33" s="133"/>
       <c r="B33" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="100"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="31">
         <v>1</v>
       </c>
@@ -7309,11 +7309,11 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="109"/>
+      <c r="A34" s="133"/>
       <c r="B34" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="100"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="31">
         <v>1</v>
       </c>
@@ -7333,11 +7333,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="109"/>
+      <c r="A35" s="133"/>
       <c r="B35" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="100"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="31">
         <v>1</v>
       </c>
@@ -7354,11 +7354,11 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="109"/>
+      <c r="A36" s="133"/>
       <c r="B36" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="100"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="31">
         <v>1</v>
       </c>
@@ -7375,11 +7375,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="109"/>
+      <c r="A37" s="133"/>
       <c r="B37" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="101"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="31">
         <v>1</v>
       </c>
@@ -7396,11 +7396,11 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="97" t="s">
+      <c r="A38" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="122"/>
       <c r="D38" s="27">
         <f>SUM(D26:D37)</f>
         <v>11</v>
@@ -7414,7 +7414,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="30.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="114" t="s">
+      <c r="A39" s="127" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -7439,7 +7439,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="116"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="32" t="s">
         <v>52</v>
       </c>
@@ -7462,7 +7462,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="116"/>
+      <c r="A41" s="129"/>
       <c r="B41" s="32" t="s">
         <v>53</v>
       </c>
@@ -7485,7 +7485,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="116"/>
+      <c r="A42" s="129"/>
       <c r="B42" s="32" t="s">
         <v>54</v>
       </c>
@@ -7508,7 +7508,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="116"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="32" t="s">
         <v>55</v>
       </c>
@@ -7534,7 +7534,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="116"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="32" t="s">
         <v>56</v>
       </c>
@@ -7557,7 +7557,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="116"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="32" t="s">
         <v>122</v>
       </c>
@@ -7580,7 +7580,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="116"/>
+      <c r="A46" s="129"/>
       <c r="B46" s="32" t="s">
         <v>58</v>
       </c>
@@ -7603,7 +7603,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="116"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="32" t="s">
         <v>59</v>
       </c>
@@ -7626,7 +7626,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="116"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="32" t="s">
         <v>60</v>
       </c>
@@ -7649,7 +7649,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="116"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="32" t="s">
         <v>61</v>
       </c>
@@ -7672,7 +7672,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="116"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="32" t="s">
         <v>63</v>
       </c>
@@ -7695,7 +7695,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="116"/>
+      <c r="A51" s="129"/>
       <c r="B51" s="29" t="s">
         <v>369</v>
       </c>
@@ -7718,7 +7718,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="105"/>
+      <c r="A52" s="115"/>
       <c r="B52" s="32" t="s">
         <v>124</v>
       </c>
@@ -7741,11 +7741,11 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="92" t="s">
+      <c r="A53" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="87"/>
-      <c r="C53" s="88"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="104"/>
       <c r="D53" s="27">
         <f>SUM(D39:D52)</f>
         <v>13</v>
@@ -7759,13 +7759,13 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="133" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="110" t="s">
+      <c r="C54" s="128" t="s">
         <v>131</v>
       </c>
       <c r="D54" s="31">
@@ -7784,11 +7784,11 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="109"/>
+      <c r="A55" s="133"/>
       <c r="B55" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="100"/>
+      <c r="C55" s="113"/>
       <c r="D55" s="31">
         <v>1</v>
       </c>
@@ -7805,11 +7805,11 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="109"/>
+      <c r="A56" s="133"/>
       <c r="B56" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="100"/>
+      <c r="C56" s="113"/>
       <c r="D56" s="31">
         <v>1</v>
       </c>
@@ -7826,11 +7826,11 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="109"/>
+      <c r="A57" s="133"/>
       <c r="B57" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="100"/>
+      <c r="C57" s="113"/>
       <c r="D57" s="31">
         <v>1</v>
       </c>
@@ -7847,11 +7847,11 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="109"/>
+      <c r="A58" s="133"/>
       <c r="B58" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="100"/>
+      <c r="C58" s="113"/>
       <c r="D58" s="31">
         <v>1</v>
       </c>
@@ -7868,11 +7868,11 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="109"/>
+      <c r="A59" s="133"/>
       <c r="B59" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="100"/>
+      <c r="C59" s="113"/>
       <c r="D59" s="31">
         <v>1</v>
       </c>
@@ -7889,11 +7889,11 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="109"/>
+      <c r="A60" s="133"/>
       <c r="B60" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="100"/>
+      <c r="C60" s="113"/>
       <c r="D60" s="31">
         <v>1</v>
       </c>
@@ -7910,11 +7910,11 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="109"/>
+      <c r="A61" s="133"/>
       <c r="B61" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="100"/>
+      <c r="C61" s="113"/>
       <c r="D61" s="31">
         <v>1</v>
       </c>
@@ -7931,11 +7931,11 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="109"/>
+      <c r="A62" s="133"/>
       <c r="B62" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="100"/>
+      <c r="C62" s="113"/>
       <c r="D62" s="31">
         <v>1</v>
       </c>
@@ -7952,11 +7952,11 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="109"/>
+      <c r="A63" s="133"/>
       <c r="B63" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="101"/>
+      <c r="C63" s="116"/>
       <c r="D63" s="31">
         <v>1</v>
       </c>
@@ -7973,11 +7973,11 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="109"/>
+      <c r="A64" s="133"/>
       <c r="B64" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="110" t="s">
+      <c r="C64" s="128" t="s">
         <v>132</v>
       </c>
       <c r="D64" s="31">
@@ -7996,11 +7996,11 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="109"/>
+      <c r="A65" s="133"/>
       <c r="B65" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="100"/>
+      <c r="C65" s="113"/>
       <c r="D65" s="31">
         <v>1</v>
       </c>
@@ -8017,11 +8017,11 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="109"/>
+      <c r="A66" s="133"/>
       <c r="B66" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="101"/>
+      <c r="C66" s="116"/>
       <c r="D66" s="31">
         <v>1</v>
       </c>
@@ -8038,11 +8038,11 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="97" t="s">
+      <c r="A67" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="96"/>
-      <c r="C67" s="96"/>
+      <c r="B67" s="122"/>
+      <c r="C67" s="122"/>
       <c r="D67" s="27">
         <f>SUM(D54:D66)</f>
         <v>13</v>
@@ -8056,7 +8056,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="115" t="s">
+      <c r="A68" s="138" t="s">
         <v>39</v>
       </c>
       <c r="B68" s="32" t="s">
@@ -8084,11 +8084,11 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="115"/>
+      <c r="A69" s="138"/>
       <c r="B69" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="114" t="s">
+      <c r="C69" s="127" t="s">
         <v>135</v>
       </c>
       <c r="D69" s="32">
@@ -8107,11 +8107,11 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="115"/>
+      <c r="A70" s="138"/>
       <c r="B70" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="100"/>
+      <c r="C70" s="113"/>
       <c r="D70" s="32">
         <v>1</v>
       </c>
@@ -8128,11 +8128,11 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="115"/>
+      <c r="A71" s="138"/>
       <c r="B71" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="100"/>
+      <c r="C71" s="113"/>
       <c r="D71" s="32">
         <v>1</v>
       </c>
@@ -8149,11 +8149,11 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="115"/>
+      <c r="A72" s="138"/>
       <c r="B72" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="100"/>
+      <c r="C72" s="113"/>
       <c r="D72" s="32">
         <v>1</v>
       </c>
@@ -8170,11 +8170,11 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="115"/>
+      <c r="A73" s="138"/>
       <c r="B73" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="100"/>
+      <c r="C73" s="113"/>
       <c r="D73" s="32">
         <v>1</v>
       </c>
@@ -8191,11 +8191,11 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="115"/>
+      <c r="A74" s="138"/>
       <c r="B74" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="100"/>
+      <c r="C74" s="113"/>
       <c r="D74" s="32">
         <v>1</v>
       </c>
@@ -8212,11 +8212,11 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="115"/>
+      <c r="A75" s="138"/>
       <c r="B75" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="100"/>
+      <c r="C75" s="113"/>
       <c r="D75" s="32">
         <v>1</v>
       </c>
@@ -8233,11 +8233,11 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="115"/>
+      <c r="A76" s="138"/>
       <c r="B76" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="100"/>
+      <c r="C76" s="113"/>
       <c r="D76" s="32">
         <v>1</v>
       </c>
@@ -8254,11 +8254,11 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="115"/>
+      <c r="A77" s="138"/>
       <c r="B77" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="100"/>
+      <c r="C77" s="113"/>
       <c r="D77" s="32">
         <v>1</v>
       </c>
@@ -8275,11 +8275,11 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="115"/>
+      <c r="A78" s="138"/>
       <c r="B78" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="100"/>
+      <c r="C78" s="113"/>
       <c r="D78" s="32">
         <v>1</v>
       </c>
@@ -8296,11 +8296,11 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="115"/>
+      <c r="A79" s="138"/>
       <c r="B79" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="100"/>
+      <c r="C79" s="113"/>
       <c r="D79" s="32">
         <v>1</v>
       </c>
@@ -8317,11 +8317,11 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="115"/>
+      <c r="A80" s="138"/>
       <c r="B80" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="100"/>
+      <c r="C80" s="113"/>
       <c r="D80" s="32">
         <v>1</v>
       </c>
@@ -8338,11 +8338,11 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="115"/>
+      <c r="A81" s="138"/>
       <c r="B81" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="100"/>
+      <c r="C81" s="113"/>
       <c r="D81" s="32">
         <v>1</v>
       </c>
@@ -8359,11 +8359,11 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="115"/>
+      <c r="A82" s="138"/>
       <c r="B82" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="100"/>
+      <c r="C82" s="113"/>
       <c r="D82" s="32">
         <v>1</v>
       </c>
@@ -8380,11 +8380,11 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="115"/>
+      <c r="A83" s="138"/>
       <c r="B83" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="101"/>
+      <c r="C83" s="116"/>
       <c r="D83" s="32">
         <v>1</v>
       </c>
@@ -8401,11 +8401,11 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="97" t="s">
+      <c r="A84" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="B84" s="96"/>
-      <c r="C84" s="96"/>
+      <c r="B84" s="122"/>
+      <c r="C84" s="122"/>
       <c r="D84" s="27">
         <f>SUM(D68:D83)</f>
         <v>15</v>
@@ -8419,7 +8419,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="109" t="s">
+      <c r="A85" s="133" t="s">
         <v>77</v>
       </c>
       <c r="B85" s="31" t="s">
@@ -8444,11 +8444,11 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="109"/>
+      <c r="A86" s="133"/>
       <c r="B86" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="110" t="s">
+      <c r="C86" s="128" t="s">
         <v>137</v>
       </c>
       <c r="D86" s="31">
@@ -8467,11 +8467,11 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="109"/>
+      <c r="A87" s="133"/>
       <c r="B87" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="100"/>
+      <c r="C87" s="113"/>
       <c r="D87" s="31">
         <v>1</v>
       </c>
@@ -8488,11 +8488,11 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="109"/>
+      <c r="A88" s="133"/>
       <c r="B88" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="101"/>
+      <c r="C88" s="116"/>
       <c r="D88" s="31">
         <v>1</v>
       </c>
@@ -8509,11 +8509,11 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="97" t="s">
+      <c r="A89" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="B89" s="96"/>
-      <c r="C89" s="96"/>
+      <c r="B89" s="122"/>
+      <c r="C89" s="122"/>
       <c r="D89" s="27">
         <f>SUM(D85:D88)</f>
         <v>4</v>
@@ -8552,11 +8552,11 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="111" t="s">
+      <c r="A91" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="B91" s="112"/>
-      <c r="C91" s="113"/>
+      <c r="B91" s="135"/>
+      <c r="C91" s="136"/>
       <c r="D91" s="33">
         <f>D90</f>
         <v>1</v>
@@ -8570,11 +8570,11 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="108" t="s">
+      <c r="A92" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="B92" s="93"/>
-      <c r="C92" s="94"/>
+      <c r="B92" s="119"/>
+      <c r="C92" s="120"/>
       <c r="D92" s="34">
         <f>SUM(D15,D25, D38, D53, D67, D84, D89, D91)</f>
         <v>78</v>
@@ -8592,24 +8592,37 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="97.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="138" t="s">
+      <c r="A93" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="B93" s="139"/>
-      <c r="C93" s="140"/>
-      <c r="D93" s="141">
+      <c r="B93" s="131"/>
+      <c r="C93" s="132"/>
+      <c r="D93" s="58">
         <f>(D92/'Site Map QAHealth Rating'!G27)</f>
         <v>0.95121951219512191</v>
       </c>
-      <c r="E93" s="136" t="s">
+      <c r="E93" s="108" t="s">
         <v>374</v>
       </c>
-      <c r="F93" s="135"/>
-      <c r="G93" s="135"/>
+      <c r="F93" s="126"/>
+      <c r="G93" s="126"/>
     </row>
     <row r="94" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="C69:C83"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A54:A66"/>
+    <mergeCell ref="A68:A83"/>
     <mergeCell ref="E93:G93"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A53:C53"/>
@@ -8620,48 +8633,35 @@
     <mergeCell ref="C54:C63"/>
     <mergeCell ref="A93:C93"/>
     <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A91:C91"/>
     <mergeCell ref="A92:C92"/>
-    <mergeCell ref="C69:C83"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A54:A66"/>
-    <mergeCell ref="A68:A83"/>
   </mergeCells>
   <conditionalFormatting sqref="D39:D52 D54:D66 D68:D83 D85:D88 D90 D26:D37 D16:D24 D2:D14">
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:F83 F90 F2:F14 F16:F24 F26:F37 F39:F52 F54:F66 F85:F88">
-    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8674,8 +8674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8713,7 +8713,7 @@
       <c r="G1" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="H1" s="143" t="s">
+      <c r="H1" s="60" t="s">
         <v>427</v>
       </c>
       <c r="I1" s="44" t="s">
@@ -8721,7 +8721,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="139" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -8746,7 +8746,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="120"/>
+      <c r="A3" s="139"/>
       <c r="B3" s="28" t="s">
         <v>184</v>
       </c>
@@ -8769,7 +8769,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="120"/>
+      <c r="A4" s="139"/>
       <c r="B4" s="28" t="s">
         <v>230</v>
       </c>
@@ -8792,7 +8792,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="120"/>
+      <c r="A5" s="139"/>
       <c r="B5" s="35" t="s">
         <v>149</v>
       </c>
@@ -8800,15 +8800,15 @@
         <v>302</v>
       </c>
       <c r="D5" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>DO NOT ADD</v>
+        <v>Can be added</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>430</v>
@@ -8818,7 +8818,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="120"/>
+      <c r="A6" s="139"/>
       <c r="B6" s="28" t="s">
         <v>150</v>
       </c>
@@ -8844,8 +8844,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="120"/>
-      <c r="B7" s="120" t="s">
+      <c r="A7" s="139"/>
+      <c r="B7" s="139" t="s">
         <v>151</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -8867,8 +8867,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="28" t="s">
         <v>354</v>
       </c>
@@ -8888,8 +8888,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="28" t="s">
         <v>355</v>
       </c>
@@ -8912,14 +8912,14 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="128"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="27">
         <f>SUM(D2:D9)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
@@ -8930,10 +8930,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="143" t="s">
         <v>317</v>
       </c>
       <c r="C11" s="36" t="s">
@@ -8955,8 +8955,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="118"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="36" t="s">
         <v>259</v>
       </c>
@@ -8976,8 +8976,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="36" t="s">
         <v>309</v>
       </c>
@@ -8997,8 +8997,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="100"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="36" t="s">
         <v>310</v>
       </c>
@@ -9018,8 +9018,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="107"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="36" t="s">
         <v>311</v>
       </c>
@@ -9039,8 +9039,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="36" t="s">
         <v>312</v>
       </c>
@@ -9060,8 +9060,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="107"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="36" t="s">
         <v>313</v>
       </c>
@@ -9081,8 +9081,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="107"/>
-      <c r="B18" s="100"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="36" t="s">
         <v>314</v>
       </c>
@@ -9102,8 +9102,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="107"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="36" t="s">
         <v>315</v>
       </c>
@@ -9123,8 +9123,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="107"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="36" t="s">
         <v>316</v>
       </c>
@@ -9144,7 +9144,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="107"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="52" t="s">
         <v>380</v>
       </c>
@@ -9167,11 +9167,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="107"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="118" t="s">
         <v>305</v>
       </c>
       <c r="D22" s="26">
@@ -9190,11 +9190,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="107"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="85"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="26">
         <v>1</v>
       </c>
@@ -9211,11 +9211,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="107"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="85"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="26">
         <v>0</v>
       </c>
@@ -9235,11 +9235,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="107"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="85"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="26">
         <v>0</v>
       </c>
@@ -9259,11 +9259,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="107"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="C26" s="85"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="26">
         <v>0</v>
       </c>
@@ -9283,11 +9283,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="107"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="85"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="26">
         <v>0</v>
       </c>
@@ -9307,7 +9307,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="107"/>
+      <c r="A28" s="118"/>
       <c r="B28" s="36" t="s">
         <v>157</v>
       </c>
@@ -9333,7 +9333,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="107"/>
+      <c r="A29" s="118"/>
       <c r="B29" s="36" t="s">
         <v>158</v>
       </c>
@@ -9359,11 +9359,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="151"/>
       <c r="D30" s="27">
         <f>SUM(D11:D29)</f>
         <v>12</v>
@@ -9377,7 +9377,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="121" t="s">
+      <c r="A31" s="140" t="s">
         <v>236</v>
       </c>
       <c r="B31" s="28" t="s">
@@ -9400,11 +9400,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="122"/>
+      <c r="A32" s="141"/>
       <c r="B32" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="145" t="s">
         <v>305</v>
       </c>
       <c r="D32" s="26">
@@ -9423,11 +9423,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="122"/>
+      <c r="A33" s="141"/>
       <c r="B33" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="125"/>
+      <c r="C33" s="146"/>
       <c r="D33" s="26">
         <v>0</v>
       </c>
@@ -9444,11 +9444,11 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="122"/>
+      <c r="A34" s="141"/>
       <c r="B34" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="C34" s="125"/>
+      <c r="C34" s="146"/>
       <c r="D34" s="26">
         <v>1</v>
       </c>
@@ -9465,11 +9465,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="122"/>
+      <c r="A35" s="141"/>
       <c r="B35" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="C35" s="105"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="26">
         <v>0</v>
       </c>
@@ -9486,7 +9486,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="122"/>
+      <c r="A36" s="141"/>
       <c r="B36" s="28" t="s">
         <v>217</v>
       </c>
@@ -9509,7 +9509,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="122"/>
+      <c r="A37" s="141"/>
       <c r="B37" s="28" t="s">
         <v>371</v>
       </c>
@@ -9532,7 +9532,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="122"/>
+      <c r="A38" s="141"/>
       <c r="B38" s="28" t="s">
         <v>321</v>
       </c>
@@ -9555,7 +9555,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="122"/>
+      <c r="A39" s="141"/>
       <c r="B39" s="28" t="s">
         <v>393</v>
       </c>
@@ -9576,7 +9576,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="122"/>
+      <c r="A40" s="141"/>
       <c r="B40" s="28" t="s">
         <v>218</v>
       </c>
@@ -9599,7 +9599,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="123"/>
+      <c r="A41" s="142"/>
       <c r="B41" s="56" t="s">
         <v>394</v>
       </c>
@@ -9622,17 +9622,17 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="86" t="s">
+      <c r="A42" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="93"/>
-      <c r="C42" s="94"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="120"/>
       <c r="D42" s="27">
         <f>SUM(D31:D41)</f>
         <v>2</v>
       </c>
       <c r="E42" s="44"/>
-      <c r="F42" s="142"/>
+      <c r="F42" s="59"/>
       <c r="G42" s="44"/>
       <c r="I42" s="44">
         <f>SUM(I31:I41)</f>
@@ -9640,7 +9640,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="102" t="s">
+      <c r="A43" s="111" t="s">
         <v>161</v>
       </c>
       <c r="B43" s="28" t="s">
@@ -9668,7 +9668,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="103"/>
+      <c r="A44" s="112"/>
       <c r="B44" s="28" t="s">
         <v>165</v>
       </c>
@@ -9691,7 +9691,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="103"/>
+      <c r="A45" s="112"/>
       <c r="B45" s="28" t="s">
         <v>166</v>
       </c>
@@ -9714,7 +9714,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="103"/>
+      <c r="A46" s="112"/>
       <c r="B46" s="28" t="s">
         <v>167</v>
       </c>
@@ -9737,7 +9737,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="103"/>
+      <c r="A47" s="112"/>
       <c r="B47" s="28" t="s">
         <v>168</v>
       </c>
@@ -9760,11 +9760,11 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="103"/>
+      <c r="A48" s="112"/>
       <c r="B48" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="102" t="s">
+      <c r="C48" s="111" t="s">
         <v>332</v>
       </c>
       <c r="D48" s="26">
@@ -9783,11 +9783,11 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="129"/>
+      <c r="A49" s="150"/>
       <c r="B49" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="101"/>
+      <c r="C49" s="116"/>
       <c r="D49" s="26">
         <v>1</v>
       </c>
@@ -9804,11 +9804,11 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="93"/>
-      <c r="C50" s="94"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="120"/>
       <c r="D50" s="27">
         <f>SUM(D43:D49)</f>
         <v>6</v>
@@ -9847,11 +9847,11 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="92" t="s">
+      <c r="A52" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="93"/>
-      <c r="C52" s="94"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="120"/>
       <c r="D52" s="27">
         <f>D51</f>
         <v>1</v>
@@ -9865,13 +9865,13 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="102" t="s">
+      <c r="A53" s="111" t="s">
         <v>163</v>
       </c>
       <c r="B53" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="C53" s="120" t="s">
+      <c r="C53" s="139" t="s">
         <v>333</v>
       </c>
       <c r="D53" s="26">
@@ -9890,11 +9890,11 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="113"/>
       <c r="B54" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="C54" s="85"/>
+      <c r="C54" s="101"/>
       <c r="D54" s="26">
         <v>1</v>
       </c>
@@ -9911,11 +9911,11 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="101"/>
+      <c r="A55" s="116"/>
       <c r="B55" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="C55" s="85"/>
+      <c r="C55" s="101"/>
       <c r="D55" s="26">
         <v>0</v>
       </c>
@@ -9932,11 +9932,11 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="92" t="s">
+      <c r="A56" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="93"/>
-      <c r="C56" s="94"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="120"/>
       <c r="D56" s="27">
         <f>SUM(D53:D55)</f>
         <v>2</v>
@@ -9950,7 +9950,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="117" t="s">
+      <c r="A57" s="143" t="s">
         <v>145</v>
       </c>
       <c r="B57" s="36" t="s">
@@ -9975,7 +9975,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="118"/>
+      <c r="A58" s="144"/>
       <c r="B58" s="36" t="s">
         <v>177</v>
       </c>
@@ -9998,7 +9998,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="119"/>
+      <c r="A59" s="152"/>
       <c r="B59" s="36" t="s">
         <v>178</v>
       </c>
@@ -10019,11 +10019,11 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="92" t="s">
+      <c r="A60" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="93"/>
-      <c r="C60" s="94"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="120"/>
       <c r="D60" s="27">
         <f>SUM(D57:D59)</f>
         <v>2</v>
@@ -10037,14 +10037,14 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="108" t="s">
+      <c r="A61" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="93"/>
-      <c r="C61" s="94"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="120"/>
       <c r="D61" s="34">
         <f>SUM(D10, D30, D42, D50, D52, D56, D60)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E61" s="47">
         <f>F61/D61</f>
@@ -10059,24 +10059,30 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="104.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="138" t="s">
+      <c r="A62" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="139"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="141">
+      <c r="B62" s="131"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="58">
         <f>D61/'Site Map QAHealth Rating'!G35</f>
-        <v>0.6</v>
-      </c>
-      <c r="E62" s="136" t="s">
+        <v>0.62</v>
+      </c>
+      <c r="E62" s="108" t="s">
         <v>374</v>
       </c>
-      <c r="F62" s="135"/>
-      <c r="G62" s="135"/>
+      <c r="F62" s="126"/>
+      <c r="G62" s="126"/>
     </row>
     <row r="63" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A53:A55"/>
     <mergeCell ref="E62:G62"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A2:A9"/>
@@ -10093,40 +10099,34 @@
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="A53:A55"/>
   </mergeCells>
   <conditionalFormatting sqref="D43:D49 D51 D53:D55 D57:D59 D2:D9 D31:D41 D11:D29">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F9 F11:F29 F31:F41 F43:F49 F51 F53:F55 F57:F59">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10187,7 +10187,7 @@
       <c r="B2" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="154" t="s">
         <v>338</v>
       </c>
       <c r="D2" s="26">
@@ -10212,7 +10212,7 @@
       <c r="B3" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="100"/>
+      <c r="C3" s="113"/>
       <c r="D3" s="26">
         <v>0</v>
       </c>
@@ -10235,7 +10235,7 @@
       <c r="B4" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="113"/>
       <c r="D4" s="26">
         <v>1</v>
       </c>
@@ -10258,7 +10258,7 @@
       <c r="B5" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="26">
         <v>1</v>
       </c>
@@ -10281,7 +10281,7 @@
       <c r="B6" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="C6" s="100"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="26">
         <v>1</v>
       </c>
@@ -10304,7 +10304,7 @@
       <c r="B7" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="C7" s="100"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="26">
         <v>1</v>
       </c>
@@ -10321,11 +10321,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="34">
         <f>SUM(D2:D7)</f>
         <v>5</v>
@@ -10347,12 +10347,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="141">
+      <c r="B9" s="153"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="58">
         <f>D8/6</f>
         <v>0.83333333333333337</v>
       </c>
@@ -10368,32 +10368,32 @@
     <mergeCell ref="C2:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D7">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10406,8 +10406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10444,7 +10444,7 @@
       <c r="G1" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="163" t="s">
+      <c r="I1" s="66" t="s">
         <v>451</v>
       </c>
     </row>
@@ -10465,11 +10465,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
       <c r="D3" s="4">
         <f>SUM(D2)</f>
         <v>0</v>
@@ -10496,11 +10496,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="91"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="107"/>
       <c r="D5" s="4">
         <f>SUM(D4)</f>
         <v>0</v>
@@ -10511,7 +10511,7 @@
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="164" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -10532,7 +10532,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="145"/>
+      <c r="A7" s="165"/>
       <c r="B7" s="2" t="s">
         <v>160</v>
       </c>
@@ -10551,7 +10551,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="145"/>
+      <c r="A8" s="165"/>
       <c r="B8" s="2" t="s">
         <v>348</v>
       </c>
@@ -10572,7 +10572,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="145"/>
+      <c r="A9" s="165"/>
       <c r="B9" s="2" t="s">
         <v>349</v>
       </c>
@@ -10593,7 +10593,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="145"/>
+      <c r="A10" s="165"/>
       <c r="B10" s="2" t="s">
         <v>356</v>
       </c>
@@ -10614,7 +10614,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="145"/>
+      <c r="A11" s="165"/>
       <c r="B11" s="2" t="s">
         <v>357</v>
       </c>
@@ -10635,7 +10635,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="145"/>
+      <c r="A12" s="165"/>
       <c r="B12" s="2" t="s">
         <v>358</v>
       </c>
@@ -10656,7 +10656,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="145"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="2" t="s">
         <v>359</v>
       </c>
@@ -10677,7 +10677,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="145"/>
+      <c r="A14" s="165"/>
       <c r="B14" s="2" t="s">
         <v>360</v>
       </c>
@@ -10698,7 +10698,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="145"/>
+      <c r="A15" s="165"/>
       <c r="B15" s="2" t="s">
         <v>361</v>
       </c>
@@ -10719,7 +10719,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="145"/>
+      <c r="A16" s="165"/>
       <c r="B16" s="2" t="s">
         <v>362</v>
       </c>
@@ -10740,7 +10740,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="145"/>
+      <c r="A17" s="165"/>
       <c r="B17" s="2" t="s">
         <v>363</v>
       </c>
@@ -10759,7 +10759,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="145"/>
+      <c r="A18" s="165"/>
       <c r="B18" s="2" t="s">
         <v>364</v>
       </c>
@@ -10780,7 +10780,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="145"/>
+      <c r="A19" s="165"/>
       <c r="B19" s="2" t="s">
         <v>365</v>
       </c>
@@ -10799,7 +10799,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="145"/>
+      <c r="A20" s="165"/>
       <c r="B20" s="2" t="s">
         <v>366</v>
       </c>
@@ -10818,7 +10818,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="145"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="2" t="s">
         <v>367</v>
       </c>
@@ -10837,7 +10837,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="145"/>
+      <c r="A22" s="165"/>
       <c r="B22" s="2" t="s">
         <v>368</v>
       </c>
@@ -10856,7 +10856,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="145"/>
+      <c r="A23" s="165"/>
       <c r="B23" s="2" t="s">
         <v>396</v>
       </c>
@@ -10877,7 +10877,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="145"/>
+      <c r="A24" s="165"/>
       <c r="B24" s="2" t="s">
         <v>397</v>
       </c>
@@ -10898,7 +10898,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="145"/>
+      <c r="A25" s="165"/>
       <c r="B25" s="2" t="s">
         <v>398</v>
       </c>
@@ -10919,7 +10919,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="145"/>
+      <c r="A26" s="165"/>
       <c r="B26" s="2" t="s">
         <v>399</v>
       </c>
@@ -10940,7 +10940,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="146"/>
+      <c r="A27" s="166"/>
       <c r="B27" s="2" t="s">
         <v>400</v>
       </c>
@@ -10961,7 +10961,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="148"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4">
@@ -10977,7 +10977,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="152" t="s">
+      <c r="A29" s="161" t="s">
         <v>428</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -11000,7 +11000,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="153"/>
+      <c r="A30" s="162"/>
       <c r="B30" s="24" t="s">
         <v>402</v>
       </c>
@@ -11021,7 +11021,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="153"/>
+      <c r="A31" s="162"/>
       <c r="B31" s="24" t="s">
         <v>403</v>
       </c>
@@ -11042,7 +11042,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="153"/>
+      <c r="A32" s="162"/>
       <c r="B32" s="24" t="s">
         <v>404</v>
       </c>
@@ -11063,7 +11063,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="153"/>
+      <c r="A33" s="162"/>
       <c r="B33" s="24" t="s">
         <v>405</v>
       </c>
@@ -11084,7 +11084,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="153"/>
+      <c r="A34" s="162"/>
       <c r="B34" s="24" t="s">
         <v>406</v>
       </c>
@@ -11105,7 +11105,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="154"/>
+      <c r="A35" s="163"/>
       <c r="B35" s="24" t="s">
         <v>407</v>
       </c>
@@ -11126,7 +11126,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="149"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4">
@@ -11142,7 +11142,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="134" t="s">
+      <c r="A37" s="159" t="s">
         <v>408</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -11165,7 +11165,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="134"/>
+      <c r="A38" s="159"/>
       <c r="B38" s="2" t="s">
         <v>410</v>
       </c>
@@ -11186,7 +11186,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="134"/>
+      <c r="A39" s="159"/>
       <c r="B39" s="2" t="s">
         <v>411</v>
       </c>
@@ -11207,7 +11207,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="134"/>
+      <c r="A40" s="159"/>
       <c r="B40" s="2" t="s">
         <v>426</v>
       </c>
@@ -11228,7 +11228,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="134"/>
+      <c r="A41" s="159"/>
       <c r="B41" s="2" t="s">
         <v>412</v>
       </c>
@@ -11249,7 +11249,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="150"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4">
@@ -11265,7 +11265,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="144" t="s">
+      <c r="A43" s="160" t="s">
         <v>413</v>
       </c>
       <c r="B43" s="24" t="s">
@@ -11288,7 +11288,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="144"/>
+      <c r="A44" s="160"/>
       <c r="B44" s="24" t="s">
         <v>415</v>
       </c>
@@ -11309,7 +11309,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="144"/>
+      <c r="A45" s="160"/>
       <c r="B45" s="24" t="s">
         <v>416</v>
       </c>
@@ -11330,7 +11330,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="144"/>
+      <c r="A46" s="160"/>
       <c r="B46" s="24" t="s">
         <v>417</v>
       </c>
@@ -11351,7 +11351,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="144"/>
+      <c r="A47" s="160"/>
       <c r="B47" s="24" t="s">
         <v>418</v>
       </c>
@@ -11372,7 +11372,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="144"/>
+      <c r="A48" s="160"/>
       <c r="B48" s="24" t="s">
         <v>419</v>
       </c>
@@ -11393,7 +11393,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="150"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4">
@@ -11409,7 +11409,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="159" t="s">
         <v>420</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -11432,7 +11432,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="134"/>
+      <c r="A51" s="159"/>
       <c r="B51" s="2" t="s">
         <v>422</v>
       </c>
@@ -11453,7 +11453,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="134"/>
+      <c r="A52" s="159"/>
       <c r="B52" s="2" t="s">
         <v>423</v>
       </c>
@@ -11474,7 +11474,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="134"/>
+      <c r="A53" s="159"/>
       <c r="B53" s="2" t="s">
         <v>425</v>
       </c>
@@ -11495,7 +11495,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="134"/>
+      <c r="A54" s="159"/>
       <c r="B54" s="2" t="s">
         <v>424</v>
       </c>
@@ -11516,11 +11516,11 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="89" t="s">
+      <c r="A55" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="90"/>
-      <c r="C55" s="91"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="107"/>
       <c r="D55" s="4">
         <f>SUM(D50:D54)</f>
         <v>0</v>
@@ -11534,11 +11534,11 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="133" t="s">
+      <c r="A56" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="90"/>
-      <c r="C56" s="91"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="107"/>
       <c r="D56" s="12">
         <f>SUM(D3,D5,D28,D36,D42,D49)</f>
         <v>16</v>
@@ -11565,11 +11565,11 @@
         <f>D56/'Site Map QAHealth Rating'!G19</f>
         <v>0.35555555555555557</v>
       </c>
-      <c r="E57" s="136" t="s">
+      <c r="E57" s="108" t="s">
         <v>374</v>
       </c>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="126"/>
     </row>
     <row r="58" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -11587,32 +11587,32 @@
     <mergeCell ref="A6:A27"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D27 D50:D54 D43:D48 D37:D41 D29:D35">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2 F4 F6:F27 F29:F35 F37:F41 F43:F48 F50:F54">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QA Testing Table.xlsx
+++ b/QA Testing Table.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcin.welninski\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcin.welninski\OneDrive - UI LABS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1644,7 +1644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1765,12 +1765,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1796,63 +1790,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1867,9 +1804,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1897,67 +1891,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1970,22 +1979,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2000,12 +2003,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2027,9 +2024,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -2072,6 +2066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2832,7 +2827,7 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2897,7 +2892,7 @@
         <f>Home!D5</f>
         <v>3</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="62">
         <f>Home!I5</f>
         <v>3</v>
       </c>
@@ -2905,21 +2900,21 @@
         <f t="shared" ref="F2:F26" si="0">D2/E2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="82">
+      <c r="G2" s="83">
         <f>SUM(D2:D3)</f>
         <v>5</v>
       </c>
-      <c r="H2" s="76">
+      <c r="H2" s="73">
         <f>Home!D10</f>
         <v>1</v>
       </c>
-      <c r="I2" s="76">
+      <c r="I2" s="73">
         <f>Home!E9</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="72"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="8" t="s">
         <v>186</v>
       </c>
@@ -2928,7 +2923,7 @@
         <f>Home!D8</f>
         <v>2</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="62">
         <f>Home!I8</f>
         <v>2</v>
       </c>
@@ -2936,12 +2931,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="85" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2956,22 +2951,22 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G4" s="88">
+      <c r="G4" s="67">
         <f>SUM(E4:E12)</f>
         <v>65</v>
       </c>
-      <c r="H4" s="76">
+      <c r="H4" s="73">
         <f>Explore!D83</f>
         <v>0.66153846153846152</v>
       </c>
-      <c r="I4" s="76">
+      <c r="I4" s="73">
         <f>Explore!E82</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="84"/>
-      <c r="B5" s="73" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="88" t="s">
         <v>189</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2989,13 +2984,13 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="84"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="3" t="s">
         <v>339</v>
       </c>
@@ -3011,13 +3006,13 @@
         <f t="shared" si="0"/>
         <v>0.6071428571428571</v>
       </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="84"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="3" t="s">
         <v>340</v>
       </c>
@@ -3033,12 +3028,12 @@
         <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="84"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="3" t="s">
         <v>190</v>
       </c>
@@ -3051,12 +3046,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="84"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="3" t="s">
         <v>191</v>
       </c>
@@ -3069,12 +3064,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="84"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="3" t="s">
         <v>192</v>
       </c>
@@ -3087,12 +3082,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="84"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="3" t="s">
         <v>193</v>
       </c>
@@ -3105,12 +3100,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="84"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="3" t="s">
         <v>194</v>
       </c>
@@ -3123,12 +3118,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="86" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -3143,12 +3138,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="94"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="77"/>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="85"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="8" t="s">
         <v>196</v>
       </c>
@@ -3161,12 +3156,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G14" s="91"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="95"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="78"/>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="85"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="8" t="s">
         <v>197</v>
       </c>
@@ -3179,12 +3174,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="95"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="78"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="85"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="8" t="s">
         <v>198</v>
       </c>
@@ -3197,12 +3192,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="95"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="78"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="85"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="8" t="s">
         <v>199</v>
       </c>
@@ -3215,12 +3210,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="95"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="78"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="85"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="8" t="s">
         <v>200</v>
       </c>
@@ -3233,12 +3228,12 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G18" s="91"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="96"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="79"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="91" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3253,21 +3248,21 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G19" s="78">
+      <c r="G19" s="94">
         <f>SUM(E19:E25)</f>
         <v>45</v>
       </c>
-      <c r="H19" s="76">
+      <c r="H19" s="73">
         <f>Assemble!D57</f>
         <v>0.35555555555555557</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="73">
         <f>Assemble!E56</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="70"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="3" t="s">
         <v>202</v>
       </c>
@@ -3280,13 +3275,13 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G20" s="74"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="70"/>
-      <c r="B21" s="73" t="s">
+      <c r="A21" s="92"/>
+      <c r="B21" s="88" t="s">
         <v>141</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -3304,13 +3299,13 @@
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G21" s="74"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="71"/>
-      <c r="B22" s="74"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="3" t="s">
         <v>433</v>
       </c>
@@ -3326,13 +3321,13 @@
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="71"/>
-      <c r="B23" s="74"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="89"/>
       <c r="C23" s="3" t="s">
         <v>434</v>
       </c>
@@ -3348,13 +3343,13 @@
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="71"/>
-      <c r="B24" s="74"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="89"/>
       <c r="C24" s="3" t="s">
         <v>435</v>
       </c>
@@ -3370,13 +3365,13 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="72"/>
-      <c r="B25" s="75"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="3" t="s">
         <v>436</v>
       </c>
@@ -3392,9 +3387,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
@@ -3415,10 +3410,10 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="67" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -3436,22 +3431,22 @@
         <f>D27/E27</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="G27" s="92">
+      <c r="G27" s="71">
         <f>SUM(E27:E34)</f>
         <v>82</v>
       </c>
-      <c r="H27" s="76">
+      <c r="H27" s="73">
         <f>'DMDII Portal'!D93</f>
         <v>0.95121951219512191</v>
       </c>
-      <c r="I27" s="76">
+      <c r="I27" s="73">
         <f>'DMDII Portal'!E92</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="84"/>
-      <c r="B28" s="88"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="9" t="s">
         <v>18</v>
       </c>
@@ -3467,13 +3462,13 @@
         <f t="shared" ref="F28:F41" si="1">D28/E28</f>
         <v>1</v>
       </c>
-      <c r="G28" s="93"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="84"/>
-      <c r="B29" s="88"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="9" t="s">
         <v>38</v>
       </c>
@@ -3489,13 +3484,13 @@
         <f t="shared" si="1"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="84"/>
-      <c r="B30" s="88" t="s">
+      <c r="A30" s="85"/>
+      <c r="B30" s="67" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -3513,13 +3508,13 @@
         <f t="shared" si="1"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="G30" s="93"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="84"/>
-      <c r="B31" s="88"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="9" t="s">
         <v>62</v>
       </c>
@@ -3535,13 +3530,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G31" s="93"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="84"/>
-      <c r="B32" s="88"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="9" t="s">
         <v>39</v>
       </c>
@@ -3557,13 +3552,13 @@
         <f t="shared" si="1"/>
         <v>0.9375</v>
       </c>
-      <c r="G32" s="93"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
     </row>
     <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="84"/>
-      <c r="B33" s="88"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="9" t="s">
         <v>77</v>
       </c>
@@ -3579,12 +3574,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G33" s="93"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="84"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
@@ -3603,9 +3598,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G34" s="93"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="81" t="s">
@@ -3619,7 +3614,7 @@
         <f>'UserDrop-down'!D10</f>
         <v>6</v>
       </c>
-      <c r="E35" s="67">
+      <c r="E35" s="65">
         <f>'UserDrop-down'!I10</f>
         <v>8</v>
       </c>
@@ -3627,21 +3622,21 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="G35" s="82">
+      <c r="G35" s="83">
         <f>SUM(E35:E41)</f>
-        <v>50</v>
-      </c>
-      <c r="H35" s="76">
+        <v>52</v>
+      </c>
+      <c r="H35" s="73">
         <f>'UserDrop-down'!D62</f>
-        <v>0.62</v>
-      </c>
-      <c r="I35" s="76">
+        <v>0.59615384615384615</v>
+      </c>
+      <c r="I35" s="73">
         <f>'UserDrop-down'!E61</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="86"/>
+      <c r="A36" s="87"/>
       <c r="B36" s="8" t="s">
         <v>140</v>
       </c>
@@ -3650,7 +3645,7 @@
         <f>'UserDrop-down'!D30</f>
         <v>12</v>
       </c>
-      <c r="E36" s="67">
+      <c r="E36" s="65">
         <f>'UserDrop-down'!I30</f>
         <v>19</v>
       </c>
@@ -3658,12 +3653,12 @@
         <f t="shared" si="1"/>
         <v>0.63157894736842102</v>
       </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
     </row>
     <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="86"/>
+      <c r="A37" s="87"/>
       <c r="B37" s="20" t="s">
         <v>350</v>
       </c>
@@ -3672,7 +3667,7 @@
         <f>'UserDrop-down'!D42</f>
         <v>2</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E37" s="65">
         <f>'UserDrop-down'!I42</f>
         <v>11</v>
       </c>
@@ -3680,12 +3675,12 @@
         <f>D37/E37</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="G37" s="87"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
     </row>
     <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="86"/>
+      <c r="A38" s="87"/>
       <c r="B38" s="8" t="s">
         <v>142</v>
       </c>
@@ -3694,7 +3689,7 @@
         <f>'UserDrop-down'!D50</f>
         <v>6</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="65">
         <f>'UserDrop-down'!I50</f>
         <v>7</v>
       </c>
@@ -3702,12 +3697,12 @@
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G38" s="87"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
     </row>
     <row r="39" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="86"/>
+      <c r="A39" s="87"/>
       <c r="B39" s="8" t="s">
         <v>143</v>
       </c>
@@ -3716,7 +3711,7 @@
         <f>'UserDrop-down'!D52</f>
         <v>1</v>
       </c>
-      <c r="E39" s="67">
+      <c r="E39" s="65">
         <f>'UserDrop-down'!I52</f>
         <v>1</v>
       </c>
@@ -3724,12 +3719,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G39" s="87"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
     </row>
     <row r="40" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="86"/>
+      <c r="A40" s="87"/>
       <c r="B40" s="8" t="s">
         <v>144</v>
       </c>
@@ -3738,20 +3733,20 @@
         <f>'UserDrop-down'!D56</f>
         <v>2</v>
       </c>
-      <c r="E40" s="67">
+      <c r="E40" s="65">
         <f>'UserDrop-down'!I56</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G40" s="87"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G40" s="90"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
     </row>
     <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="72"/>
+      <c r="A41" s="82"/>
       <c r="B41" s="8" t="s">
         <v>145</v>
       </c>
@@ -3760,7 +3755,7 @@
         <f>'UserDrop-down'!D60</f>
         <v>2</v>
       </c>
-      <c r="E41" s="67">
+      <c r="E41" s="65">
         <f>'UserDrop-down'!I60</f>
         <v>3</v>
       </c>
@@ -3768,9 +3763,9 @@
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G41" s="75"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
     </row>
     <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
@@ -3814,11 +3809,11 @@
       <c r="E43" s="80"/>
       <c r="F43" s="80"/>
       <c r="G43" s="80"/>
-      <c r="H43" s="68">
+      <c r="H43" s="66">
         <f>(SUM(D2:D3,D5:D7,D27:D42,D21:D25)/SUM(E2:E3,E5:E7,E27:E42,E21:E25))</f>
-        <v>0.70355731225296447</v>
-      </c>
-      <c r="I43" s="68"/>
+        <v>0.69803921568627447</v>
+      </c>
+      <c r="I43" s="66"/>
     </row>
     <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C44" s="5"/>
@@ -3836,7 +3831,7 @@
       <c r="H45" t="s">
         <v>437</v>
       </c>
-      <c r="I45" s="65">
+      <c r="I45" s="63">
         <v>1</v>
       </c>
     </row>
@@ -4070,15 +4065,10 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="G4:G12"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="G27:G34"/>
-    <mergeCell ref="I35:I41"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I12"/>
-    <mergeCell ref="I13:I18"/>
-    <mergeCell ref="I27:I34"/>
-    <mergeCell ref="H35:H41"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="I19:I25"/>
+    <mergeCell ref="G19:G25"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:G3"/>
@@ -4095,10 +4085,15 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="I19:I25"/>
-    <mergeCell ref="G19:G25"/>
+    <mergeCell ref="G4:G12"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="G27:G34"/>
+    <mergeCell ref="I35:I41"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I12"/>
+    <mergeCell ref="I13:I18"/>
+    <mergeCell ref="I27:I34"/>
+    <mergeCell ref="H35:H41"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:H21 H26:H44 I43">
     <cfRule type="dataBar" priority="7">
@@ -4325,29 +4320,29 @@
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="67" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="88"/>
+      <c r="C26" s="67"/>
     </row>
     <row r="27" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="88"/>
+      <c r="C27" s="67"/>
     </row>
     <row r="28" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="67" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="88"/>
+      <c r="C29" s="67"/>
     </row>
     <row r="30" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="88"/>
+      <c r="C30" s="67"/>
     </row>
     <row r="31" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="88"/>
+      <c r="C31" s="67"/>
     </row>
     <row r="32" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="19" t="s">
@@ -4365,12 +4360,12 @@
       </c>
     </row>
     <row r="35" spans="3:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="83" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="36" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="75"/>
+      <c r="C36" s="84"/>
     </row>
     <row r="37" spans="3:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="8" t="s">
@@ -4450,12 +4445,12 @@
       <c r="G1" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="64" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="98" t="s">
         <v>173</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -4483,7 +4478,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="100"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
@@ -4509,7 +4504,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="100"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
@@ -4535,11 +4530,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="4">
         <f>SUM(D2:D4)</f>
         <v>3</v>
@@ -4552,7 +4547,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="99" t="s">
         <v>174</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -4580,7 +4575,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="101"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="26" t="s">
         <v>172</v>
       </c>
@@ -4606,11 +4601,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="107"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="4">
         <f>SUM(D6:D7)</f>
         <v>2</v>
@@ -4623,11 +4618,11 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="99"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="48">
         <f>SUM(D5,D8)</f>
         <v>5</v>
@@ -4645,11 +4640,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="46">
         <f>D9/'Site Map QAHealth Rating'!G2</f>
         <v>1</v>
@@ -4707,8 +4702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4746,7 +4741,7 @@
       <c r="G1" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="64" t="s">
         <v>449</v>
       </c>
     </row>
@@ -4767,11 +4762,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="120"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
       <c r="D3" s="4">
         <f>SUM(D2)</f>
         <v>0</v>
@@ -4782,7 +4777,7 @@
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="112" t="s">
         <v>279</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -4807,7 +4802,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="125"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="38" t="s">
         <v>297</v>
       </c>
@@ -4830,7 +4825,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="113"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="38" t="s">
         <v>281</v>
       </c>
@@ -4853,7 +4848,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="113"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="29" t="s">
         <v>289</v>
       </c>
@@ -4876,7 +4871,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="113"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="29" t="s">
         <v>282</v>
       </c>
@@ -4899,7 +4894,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="113"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="29" t="s">
         <v>283</v>
       </c>
@@ -4922,7 +4917,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="113"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="29" t="s">
         <v>217</v>
       </c>
@@ -4945,7 +4940,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="29" t="s">
         <v>284</v>
       </c>
@@ -4968,7 +4963,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="116"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="29" t="s">
         <v>369</v>
       </c>
@@ -4991,11 +4986,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="4">
         <f>SUM(D4:D12)</f>
         <v>6</v>
@@ -5009,13 +5004,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="116" t="s">
         <v>323</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="116" t="s">
         <v>296</v>
       </c>
       <c r="D14" s="13">
@@ -5034,11 +5029,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="112"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="113"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="13">
         <v>1</v>
       </c>
@@ -5055,11 +5050,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="112"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="113"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="13">
         <v>1</v>
       </c>
@@ -5076,11 +5071,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="112"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="113"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="13">
         <v>1</v>
       </c>
@@ -5097,11 +5092,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="112"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="113"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="13">
         <v>0</v>
       </c>
@@ -5118,11 +5113,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="112"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="C19" s="116"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="13">
         <v>0</v>
       </c>
@@ -5139,7 +5134,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="112"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="28" t="s">
         <v>231</v>
       </c>
@@ -5163,7 +5158,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="112"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="28" t="s">
         <v>232</v>
       </c>
@@ -5184,7 +5179,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="112"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="28" t="s">
         <v>322</v>
       </c>
@@ -5205,7 +5200,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="112"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="30" t="s">
         <v>224</v>
       </c>
@@ -5228,11 +5223,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="112"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="116" t="s">
         <v>296</v>
       </c>
       <c r="D24" s="13">
@@ -5252,11 +5247,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="112"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="112"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="13">
         <v>0</v>
       </c>
@@ -5274,11 +5269,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="112"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="C26" s="113"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="13">
         <v>0</v>
       </c>
@@ -5296,11 +5291,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="112"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="113"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="13">
         <v>0</v>
       </c>
@@ -5318,11 +5313,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="112"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="C28" s="113"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="13">
         <v>1</v>
       </c>
@@ -5340,11 +5335,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="112"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="C29" s="113"/>
+      <c r="C29" s="114"/>
       <c r="D29" s="13">
         <v>1</v>
       </c>
@@ -5362,11 +5357,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="112"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="C30" s="114"/>
+      <c r="C30" s="120"/>
       <c r="D30" s="13">
         <v>0</v>
       </c>
@@ -5384,11 +5379,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="112"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="C31" s="114"/>
+      <c r="C31" s="120"/>
       <c r="D31" s="13">
         <v>0</v>
       </c>
@@ -5406,11 +5401,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="112"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="C32" s="115"/>
+      <c r="C32" s="121"/>
       <c r="D32" s="13">
         <v>0</v>
       </c>
@@ -5428,7 +5423,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="113"/>
+      <c r="A33" s="114"/>
       <c r="B33" s="28" t="s">
         <v>240</v>
       </c>
@@ -5452,7 +5447,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="113"/>
+      <c r="A34" s="114"/>
       <c r="B34" s="28" t="s">
         <v>389</v>
       </c>
@@ -5476,7 +5471,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="113"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="28" t="s">
         <v>241</v>
       </c>
@@ -5500,7 +5495,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="113"/>
+      <c r="A36" s="114"/>
       <c r="B36" s="28" t="s">
         <v>242</v>
       </c>
@@ -5524,7 +5519,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="113"/>
+      <c r="A37" s="114"/>
       <c r="B37" s="28" t="s">
         <v>244</v>
       </c>
@@ -5548,7 +5543,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="113"/>
+      <c r="A38" s="114"/>
       <c r="B38" s="28" t="s">
         <v>352</v>
       </c>
@@ -5572,7 +5567,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="113"/>
+      <c r="A39" s="114"/>
       <c r="B39" s="28" t="s">
         <v>233</v>
       </c>
@@ -5596,7 +5591,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="113"/>
+      <c r="A40" s="114"/>
       <c r="B40" s="28" t="s">
         <v>234</v>
       </c>
@@ -5620,7 +5615,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="116"/>
+      <c r="A41" s="115"/>
       <c r="B41" s="28" t="s">
         <v>235</v>
       </c>
@@ -5644,11 +5639,11 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="123" t="s">
+      <c r="A42" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="122"/>
-      <c r="C42" s="122"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
       <c r="D42" s="4">
         <f>SUM(D14:D41)</f>
         <v>17</v>
@@ -5662,7 +5657,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="122" t="s">
         <v>285</v>
       </c>
       <c r="B43" s="36" t="s">
@@ -5688,7 +5683,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="117"/>
+      <c r="A44" s="122"/>
       <c r="B44" s="36" t="s">
         <v>248</v>
       </c>
@@ -5712,11 +5707,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="117"/>
+      <c r="A45" s="122"/>
       <c r="B45" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="C45" s="118" t="s">
+      <c r="C45" s="123" t="s">
         <v>275</v>
       </c>
       <c r="D45" s="13">
@@ -5736,11 +5731,11 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="117"/>
+      <c r="A46" s="122"/>
       <c r="B46" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="C46" s="118"/>
+      <c r="C46" s="123"/>
       <c r="D46" s="13">
         <v>1</v>
       </c>
@@ -5758,11 +5753,11 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="117"/>
+      <c r="A47" s="122"/>
       <c r="B47" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="118"/>
+      <c r="C47" s="123"/>
       <c r="D47" s="13">
         <v>1</v>
       </c>
@@ -5780,11 +5775,11 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="117"/>
+      <c r="A48" s="122"/>
       <c r="B48" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="118"/>
+      <c r="C48" s="123"/>
       <c r="D48" s="13">
         <v>0</v>
       </c>
@@ -5805,11 +5800,11 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="117"/>
+      <c r="A49" s="122"/>
       <c r="B49" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="118"/>
+      <c r="C49" s="123"/>
       <c r="D49" s="13">
         <v>1</v>
       </c>
@@ -5827,11 +5822,11 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="117"/>
+      <c r="A50" s="122"/>
       <c r="B50" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="118"/>
+      <c r="C50" s="123"/>
       <c r="D50" s="13">
         <v>1</v>
       </c>
@@ -5849,11 +5844,11 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="117"/>
+      <c r="A51" s="122"/>
       <c r="B51" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="118"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="13">
         <v>1</v>
       </c>
@@ -5871,11 +5866,11 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="117"/>
+      <c r="A52" s="122"/>
       <c r="B52" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="118"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="13">
         <v>1</v>
       </c>
@@ -5892,11 +5887,11 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="117"/>
+      <c r="A53" s="122"/>
       <c r="B53" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="118"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="13">
         <v>1</v>
       </c>
@@ -5913,11 +5908,11 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="117"/>
+      <c r="A54" s="122"/>
       <c r="B54" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="118"/>
+      <c r="C54" s="123"/>
       <c r="D54" s="13">
         <v>1</v>
       </c>
@@ -5934,11 +5929,11 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="117"/>
+      <c r="A55" s="122"/>
       <c r="B55" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="118"/>
+      <c r="C55" s="123"/>
       <c r="D55" s="13">
         <v>0</v>
       </c>
@@ -5955,11 +5950,11 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="117"/>
+      <c r="A56" s="122"/>
       <c r="B56" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="118"/>
+      <c r="C56" s="123"/>
       <c r="D56" s="13">
         <v>1</v>
       </c>
@@ -5976,11 +5971,11 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="117"/>
+      <c r="A57" s="122"/>
       <c r="B57" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="118"/>
+      <c r="C57" s="123"/>
       <c r="D57" s="13">
         <v>0</v>
       </c>
@@ -5997,11 +5992,11 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="117"/>
+      <c r="A58" s="122"/>
       <c r="B58" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="C58" s="118"/>
+      <c r="C58" s="123"/>
       <c r="D58" s="13">
         <v>1</v>
       </c>
@@ -6018,11 +6013,11 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="117"/>
+      <c r="A59" s="122"/>
       <c r="B59" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="C59" s="118"/>
+      <c r="C59" s="123"/>
       <c r="D59" s="13">
         <v>0</v>
       </c>
@@ -6039,11 +6034,11 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="117"/>
+      <c r="A60" s="122"/>
       <c r="B60" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="C60" s="118"/>
+      <c r="C60" s="123"/>
       <c r="D60" s="13">
         <v>1</v>
       </c>
@@ -6060,11 +6055,11 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="117"/>
+      <c r="A61" s="122"/>
       <c r="B61" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="C61" s="118"/>
+      <c r="C61" s="123"/>
       <c r="D61" s="13">
         <v>0</v>
       </c>
@@ -6081,11 +6076,11 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="117"/>
+      <c r="A62" s="122"/>
       <c r="B62" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="118"/>
+      <c r="C62" s="123"/>
       <c r="D62" s="13">
         <v>1</v>
       </c>
@@ -6102,11 +6097,11 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="117"/>
+      <c r="A63" s="122"/>
       <c r="B63" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="C63" s="118"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="13">
         <v>0</v>
       </c>
@@ -6123,11 +6118,11 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="117"/>
+      <c r="A64" s="122"/>
       <c r="B64" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="C64" s="118"/>
+      <c r="C64" s="123"/>
       <c r="D64" s="13">
         <v>0</v>
       </c>
@@ -6144,11 +6139,11 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="117"/>
+      <c r="A65" s="122"/>
       <c r="B65" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="C65" s="118"/>
+      <c r="C65" s="123"/>
       <c r="D65" s="13">
         <v>0</v>
       </c>
@@ -6165,11 +6160,11 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="117"/>
+      <c r="A66" s="122"/>
       <c r="B66" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="C66" s="118"/>
+      <c r="C66" s="123"/>
       <c r="D66" s="13">
         <v>1</v>
       </c>
@@ -6186,11 +6181,11 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="117"/>
+      <c r="A67" s="122"/>
       <c r="B67" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="C67" s="118"/>
+      <c r="C67" s="123"/>
       <c r="D67" s="13">
         <v>1</v>
       </c>
@@ -6207,11 +6202,11 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="117"/>
+      <c r="A68" s="122"/>
       <c r="B68" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="C68" s="118"/>
+      <c r="C68" s="123"/>
       <c r="D68" s="13">
         <v>1</v>
       </c>
@@ -6228,11 +6223,11 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="100"/>
+      <c r="A69" s="98"/>
       <c r="B69" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="C69" s="118"/>
+      <c r="C69" s="123"/>
       <c r="D69" s="13">
         <v>1</v>
       </c>
@@ -6249,11 +6244,11 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="100"/>
+      <c r="A70" s="98"/>
       <c r="B70" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="C70" s="118"/>
+      <c r="C70" s="123"/>
       <c r="D70" s="13">
         <v>1</v>
       </c>
@@ -6270,11 +6265,11 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="102" t="s">
+      <c r="A71" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="119"/>
-      <c r="C71" s="120"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="108"/>
       <c r="D71" s="4">
         <f>SUM(D43:D70)</f>
         <v>20</v>
@@ -6304,11 +6299,11 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="121" t="s">
+      <c r="A73" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="119"/>
-      <c r="C73" s="120"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="108"/>
       <c r="D73" s="4">
         <f>SUM(D72)</f>
         <v>0</v>
@@ -6335,11 +6330,11 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="121" t="s">
+      <c r="A75" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="B75" s="119"/>
-      <c r="C75" s="119"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="107"/>
       <c r="D75" s="11">
         <f>SUM(D74)</f>
         <v>0</v>
@@ -6366,11 +6361,11 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="121" t="s">
+      <c r="A77" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="119"/>
-      <c r="C77" s="119"/>
+      <c r="B77" s="107"/>
+      <c r="C77" s="107"/>
       <c r="D77" s="11">
         <f>SUM(D76)</f>
         <v>0</v>
@@ -6397,11 +6392,11 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="121" t="s">
+      <c r="A79" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="B79" s="119"/>
-      <c r="C79" s="119"/>
+      <c r="B79" s="107"/>
+      <c r="C79" s="107"/>
       <c r="D79" s="11">
         <f>SUM(D78)</f>
         <v>0</v>
@@ -6430,11 +6425,11 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="122" t="s">
+      <c r="A81" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="B81" s="122"/>
-      <c r="C81" s="122"/>
+      <c r="B81" s="110"/>
+      <c r="C81" s="110"/>
       <c r="D81" s="4">
         <f>SUM(D80)</f>
         <v>0</v>
@@ -6445,11 +6440,11 @@
       <c r="I81" s="44"/>
     </row>
     <row r="82" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="110" t="s">
+      <c r="A82" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="B82" s="110"/>
-      <c r="C82" s="110"/>
+      <c r="B82" s="109"/>
+      <c r="C82" s="109"/>
       <c r="D82" s="12">
         <f>SUM(D3, D13, D42, D71, D73, D75, D77, D79, D81)</f>
         <v>43</v>
@@ -6467,32 +6462,24 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="76.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="110" t="s">
+      <c r="A83" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="B83" s="110"/>
-      <c r="C83" s="110"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="109"/>
       <c r="D83" s="46">
         <f>D82/'Site Map QAHealth Rating'!G4</f>
         <v>0.66153846153846152</v>
       </c>
-      <c r="E83" s="108" t="s">
+      <c r="E83" s="117" t="s">
         <v>374</v>
       </c>
-      <c r="F83" s="109"/>
-      <c r="G83" s="109"/>
+      <c r="F83" s="118"/>
+      <c r="G83" s="118"/>
     </row>
     <row r="84" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="C14:C19"/>
     <mergeCell ref="E83:G83"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="C24:C32"/>
@@ -6503,6 +6490,14 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A79:C79"/>
     <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="C14:C19"/>
   </mergeCells>
   <conditionalFormatting sqref="D2 D4:D12 D43:D70 D72 D74 D76 D78 D80 D14:D41">
     <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
@@ -6546,7 +6541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="C61" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -6589,7 +6584,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="124" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -6614,7 +6609,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="133"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="31" t="s">
         <v>20</v>
       </c>
@@ -6637,7 +6632,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="133"/>
+      <c r="A4" s="124"/>
       <c r="B4" s="31" t="s">
         <v>21</v>
       </c>
@@ -6660,7 +6655,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="133"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="31" t="s">
         <v>22</v>
       </c>
@@ -6683,7 +6678,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="133"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="31" t="s">
         <v>57</v>
       </c>
@@ -6706,7 +6701,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="133"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="31" t="s">
         <v>103</v>
       </c>
@@ -6729,7 +6724,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="133"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="31" t="s">
         <v>26</v>
       </c>
@@ -6752,7 +6747,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="133"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="31" t="s">
         <v>23</v>
       </c>
@@ -6775,7 +6770,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="133"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="31" t="s">
         <v>24</v>
       </c>
@@ -6798,7 +6793,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="133"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="31" t="s">
         <v>25</v>
       </c>
@@ -6821,7 +6816,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="133"/>
+      <c r="A12" s="124"/>
       <c r="B12" s="31" t="s">
         <v>27</v>
       </c>
@@ -6844,7 +6839,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="133"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="31" t="s">
         <v>28</v>
       </c>
@@ -6867,7 +6862,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="101"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="31" t="s">
         <v>369</v>
       </c>
@@ -6890,11 +6885,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="27">
         <f>SUM(D2:D14)</f>
         <v>12</v>
@@ -6908,13 +6903,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="130" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="129" t="s">
         <v>111</v>
       </c>
       <c r="D16" s="32">
@@ -6933,11 +6928,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="138"/>
+      <c r="A17" s="130"/>
       <c r="B17" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="113"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="32">
         <v>1</v>
       </c>
@@ -6954,11 +6949,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="138"/>
+      <c r="A18" s="130"/>
       <c r="B18" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="113"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="32">
         <v>1</v>
       </c>
@@ -6975,11 +6970,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="138"/>
+      <c r="A19" s="130"/>
       <c r="B19" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="C19" s="113"/>
+      <c r="C19" s="114"/>
       <c r="D19" s="32">
         <v>1</v>
       </c>
@@ -6996,11 +6991,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="138"/>
+      <c r="A20" s="130"/>
       <c r="B20" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="113"/>
+      <c r="C20" s="114"/>
       <c r="D20" s="32">
         <v>1</v>
       </c>
@@ -7017,11 +7012,11 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="138"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="113"/>
+      <c r="C21" s="114"/>
       <c r="D21" s="32">
         <v>1</v>
       </c>
@@ -7038,11 +7033,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="138"/>
+      <c r="A22" s="130"/>
       <c r="B22" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="113"/>
+      <c r="C22" s="114"/>
       <c r="D22" s="32">
         <v>1</v>
       </c>
@@ -7062,11 +7057,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="138"/>
+      <c r="A23" s="130"/>
       <c r="B23" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="113"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="32">
         <v>1</v>
       </c>
@@ -7083,11 +7078,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="138"/>
+      <c r="A24" s="130"/>
       <c r="B24" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="116"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="32">
         <v>1</v>
       </c>
@@ -7104,11 +7099,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="123" t="s">
+      <c r="A25" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
       <c r="D25" s="27">
         <f>SUM(D16:D24)</f>
         <v>9</v>
@@ -7122,7 +7117,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="133" t="s">
+      <c r="A26" s="124" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="31" t="s">
@@ -7150,7 +7145,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="133"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="31" t="s">
         <v>41</v>
       </c>
@@ -7173,7 +7168,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="133"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="31" t="s">
         <v>42</v>
       </c>
@@ -7196,11 +7191,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="133"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="128" t="s">
+      <c r="C29" s="125" t="s">
         <v>115</v>
       </c>
       <c r="D29" s="31">
@@ -7219,11 +7214,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="133"/>
+      <c r="A30" s="124"/>
       <c r="B30" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="113"/>
+      <c r="C30" s="114"/>
       <c r="D30" s="31">
         <v>1</v>
       </c>
@@ -7240,11 +7235,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="133"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="113"/>
+      <c r="C31" s="114"/>
       <c r="D31" s="31">
         <v>1</v>
       </c>
@@ -7264,11 +7259,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="133"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="113"/>
+      <c r="C32" s="114"/>
       <c r="D32" s="31">
         <v>1</v>
       </c>
@@ -7285,11 +7280,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="133"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="113"/>
+      <c r="C33" s="114"/>
       <c r="D33" s="31">
         <v>1</v>
       </c>
@@ -7309,11 +7304,11 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="133"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="113"/>
+      <c r="C34" s="114"/>
       <c r="D34" s="31">
         <v>1</v>
       </c>
@@ -7333,11 +7328,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="133"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="113"/>
+      <c r="C35" s="114"/>
       <c r="D35" s="31">
         <v>1</v>
       </c>
@@ -7354,11 +7349,11 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="133"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="113"/>
+      <c r="C36" s="114"/>
       <c r="D36" s="31">
         <v>1</v>
       </c>
@@ -7375,11 +7370,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="133"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="116"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="31">
         <v>1</v>
       </c>
@@ -7396,11 +7391,11 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="123" t="s">
+      <c r="A38" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="122"/>
-      <c r="C38" s="122"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="27">
         <f>SUM(D26:D37)</f>
         <v>11</v>
@@ -7414,7 +7409,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="30.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="127" t="s">
+      <c r="A39" s="129" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -7439,7 +7434,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="32" t="s">
         <v>52</v>
       </c>
@@ -7462,7 +7457,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="32" t="s">
         <v>53</v>
       </c>
@@ -7485,7 +7480,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="32" t="s">
         <v>54</v>
       </c>
@@ -7508,7 +7503,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="32" t="s">
         <v>55</v>
       </c>
@@ -7534,7 +7529,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="32" t="s">
         <v>56</v>
       </c>
@@ -7557,7 +7552,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="32" t="s">
         <v>122</v>
       </c>
@@ -7580,7 +7575,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="129"/>
+      <c r="A46" s="132"/>
       <c r="B46" s="32" t="s">
         <v>58</v>
       </c>
@@ -7603,7 +7598,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="32" t="s">
         <v>59</v>
       </c>
@@ -7626,7 +7621,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="32" t="s">
         <v>60</v>
       </c>
@@ -7649,7 +7644,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="32" t="s">
         <v>61</v>
       </c>
@@ -7672,7 +7667,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="32" t="s">
         <v>63</v>
       </c>
@@ -7695,7 +7690,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="29" t="s">
         <v>369</v>
       </c>
@@ -7718,7 +7713,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="115"/>
+      <c r="A52" s="121"/>
       <c r="B52" s="32" t="s">
         <v>124</v>
       </c>
@@ -7741,11 +7736,11 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="121" t="s">
+      <c r="A53" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="103"/>
-      <c r="C53" s="104"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="102"/>
       <c r="D53" s="27">
         <f>SUM(D39:D52)</f>
         <v>13</v>
@@ -7759,13 +7754,13 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="133" t="s">
+      <c r="A54" s="124" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="128" t="s">
+      <c r="C54" s="125" t="s">
         <v>131</v>
       </c>
       <c r="D54" s="31">
@@ -7784,11 +7779,11 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="133"/>
+      <c r="A55" s="124"/>
       <c r="B55" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="113"/>
+      <c r="C55" s="114"/>
       <c r="D55" s="31">
         <v>1</v>
       </c>
@@ -7805,11 +7800,11 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="133"/>
+      <c r="A56" s="124"/>
       <c r="B56" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="113"/>
+      <c r="C56" s="114"/>
       <c r="D56" s="31">
         <v>1</v>
       </c>
@@ -7826,11 +7821,11 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="133"/>
+      <c r="A57" s="124"/>
       <c r="B57" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="113"/>
+      <c r="C57" s="114"/>
       <c r="D57" s="31">
         <v>1</v>
       </c>
@@ -7847,11 +7842,11 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="133"/>
+      <c r="A58" s="124"/>
       <c r="B58" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="113"/>
+      <c r="C58" s="114"/>
       <c r="D58" s="31">
         <v>1</v>
       </c>
@@ -7868,11 +7863,11 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="133"/>
+      <c r="A59" s="124"/>
       <c r="B59" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="113"/>
+      <c r="C59" s="114"/>
       <c r="D59" s="31">
         <v>1</v>
       </c>
@@ -7889,11 +7884,11 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="133"/>
+      <c r="A60" s="124"/>
       <c r="B60" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="113"/>
+      <c r="C60" s="114"/>
       <c r="D60" s="31">
         <v>1</v>
       </c>
@@ -7910,11 +7905,11 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="133"/>
+      <c r="A61" s="124"/>
       <c r="B61" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="113"/>
+      <c r="C61" s="114"/>
       <c r="D61" s="31">
         <v>1</v>
       </c>
@@ -7931,11 +7926,11 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="133"/>
+      <c r="A62" s="124"/>
       <c r="B62" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="113"/>
+      <c r="C62" s="114"/>
       <c r="D62" s="31">
         <v>1</v>
       </c>
@@ -7952,11 +7947,11 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="133"/>
+      <c r="A63" s="124"/>
       <c r="B63" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="116"/>
+      <c r="C63" s="115"/>
       <c r="D63" s="31">
         <v>1</v>
       </c>
@@ -7973,11 +7968,11 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="133"/>
+      <c r="A64" s="124"/>
       <c r="B64" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="128" t="s">
+      <c r="C64" s="125" t="s">
         <v>132</v>
       </c>
       <c r="D64" s="31">
@@ -7996,11 +7991,11 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="133"/>
+      <c r="A65" s="124"/>
       <c r="B65" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="113"/>
+      <c r="C65" s="114"/>
       <c r="D65" s="31">
         <v>1</v>
       </c>
@@ -8017,11 +8012,11 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="133"/>
+      <c r="A66" s="124"/>
       <c r="B66" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="116"/>
+      <c r="C66" s="115"/>
       <c r="D66" s="31">
         <v>1</v>
       </c>
@@ -8038,11 +8033,11 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="123" t="s">
+      <c r="A67" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="122"/>
-      <c r="C67" s="122"/>
+      <c r="B67" s="110"/>
+      <c r="C67" s="110"/>
       <c r="D67" s="27">
         <f>SUM(D54:D66)</f>
         <v>13</v>
@@ -8056,7 +8051,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="138" t="s">
+      <c r="A68" s="130" t="s">
         <v>39</v>
       </c>
       <c r="B68" s="32" t="s">
@@ -8084,11 +8079,11 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="138"/>
+      <c r="A69" s="130"/>
       <c r="B69" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="127" t="s">
+      <c r="C69" s="129" t="s">
         <v>135</v>
       </c>
       <c r="D69" s="32">
@@ -8107,11 +8102,11 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="138"/>
+      <c r="A70" s="130"/>
       <c r="B70" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="113"/>
+      <c r="C70" s="114"/>
       <c r="D70" s="32">
         <v>1</v>
       </c>
@@ -8128,11 +8123,11 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="138"/>
+      <c r="A71" s="130"/>
       <c r="B71" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="113"/>
+      <c r="C71" s="114"/>
       <c r="D71" s="32">
         <v>1</v>
       </c>
@@ -8149,11 +8144,11 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="138"/>
+      <c r="A72" s="130"/>
       <c r="B72" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="113"/>
+      <c r="C72" s="114"/>
       <c r="D72" s="32">
         <v>1</v>
       </c>
@@ -8170,11 +8165,11 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="138"/>
+      <c r="A73" s="130"/>
       <c r="B73" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="113"/>
+      <c r="C73" s="114"/>
       <c r="D73" s="32">
         <v>1</v>
       </c>
@@ -8191,11 +8186,11 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="138"/>
+      <c r="A74" s="130"/>
       <c r="B74" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="113"/>
+      <c r="C74" s="114"/>
       <c r="D74" s="32">
         <v>1</v>
       </c>
@@ -8212,11 +8207,11 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="138"/>
+      <c r="A75" s="130"/>
       <c r="B75" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="113"/>
+      <c r="C75" s="114"/>
       <c r="D75" s="32">
         <v>1</v>
       </c>
@@ -8233,11 +8228,11 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="138"/>
+      <c r="A76" s="130"/>
       <c r="B76" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="113"/>
+      <c r="C76" s="114"/>
       <c r="D76" s="32">
         <v>1</v>
       </c>
@@ -8254,11 +8249,11 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="138"/>
+      <c r="A77" s="130"/>
       <c r="B77" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="113"/>
+      <c r="C77" s="114"/>
       <c r="D77" s="32">
         <v>1</v>
       </c>
@@ -8275,11 +8270,11 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="138"/>
+      <c r="A78" s="130"/>
       <c r="B78" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="113"/>
+      <c r="C78" s="114"/>
       <c r="D78" s="32">
         <v>1</v>
       </c>
@@ -8296,11 +8291,11 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="138"/>
+      <c r="A79" s="130"/>
       <c r="B79" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="113"/>
+      <c r="C79" s="114"/>
       <c r="D79" s="32">
         <v>1</v>
       </c>
@@ -8317,11 +8312,11 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="138"/>
+      <c r="A80" s="130"/>
       <c r="B80" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="113"/>
+      <c r="C80" s="114"/>
       <c r="D80" s="32">
         <v>1</v>
       </c>
@@ -8338,11 +8333,11 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="138"/>
+      <c r="A81" s="130"/>
       <c r="B81" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="113"/>
+      <c r="C81" s="114"/>
       <c r="D81" s="32">
         <v>1</v>
       </c>
@@ -8359,11 +8354,11 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="138"/>
+      <c r="A82" s="130"/>
       <c r="B82" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="113"/>
+      <c r="C82" s="114"/>
       <c r="D82" s="32">
         <v>1</v>
       </c>
@@ -8380,11 +8375,11 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="138"/>
+      <c r="A83" s="130"/>
       <c r="B83" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="116"/>
+      <c r="C83" s="115"/>
       <c r="D83" s="32">
         <v>1</v>
       </c>
@@ -8401,11 +8396,11 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="123" t="s">
+      <c r="A84" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="B84" s="122"/>
-      <c r="C84" s="122"/>
+      <c r="B84" s="110"/>
+      <c r="C84" s="110"/>
       <c r="D84" s="27">
         <f>SUM(D68:D83)</f>
         <v>15</v>
@@ -8419,7 +8414,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="133" t="s">
+      <c r="A85" s="124" t="s">
         <v>77</v>
       </c>
       <c r="B85" s="31" t="s">
@@ -8444,11 +8439,11 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="133"/>
+      <c r="A86" s="124"/>
       <c r="B86" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="128" t="s">
+      <c r="C86" s="125" t="s">
         <v>137</v>
       </c>
       <c r="D86" s="31">
@@ -8467,11 +8462,11 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="133"/>
+      <c r="A87" s="124"/>
       <c r="B87" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="113"/>
+      <c r="C87" s="114"/>
       <c r="D87" s="31">
         <v>1</v>
       </c>
@@ -8488,11 +8483,11 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="133"/>
+      <c r="A88" s="124"/>
       <c r="B88" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="116"/>
+      <c r="C88" s="115"/>
       <c r="D88" s="31">
         <v>1</v>
       </c>
@@ -8509,11 +8504,11 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="123" t="s">
+      <c r="A89" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="B89" s="122"/>
-      <c r="C89" s="122"/>
+      <c r="B89" s="110"/>
+      <c r="C89" s="110"/>
       <c r="D89" s="27">
         <f>SUM(D85:D88)</f>
         <v>4</v>
@@ -8552,11 +8547,11 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="134" t="s">
+      <c r="A91" s="126" t="s">
         <v>146</v>
       </c>
-      <c r="B91" s="135"/>
-      <c r="C91" s="136"/>
+      <c r="B91" s="127"/>
+      <c r="C91" s="128"/>
       <c r="D91" s="33">
         <f>D90</f>
         <v>1</v>
@@ -8570,11 +8565,11 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="137" t="s">
+      <c r="A92" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="B92" s="119"/>
-      <c r="C92" s="120"/>
+      <c r="B92" s="107"/>
+      <c r="C92" s="108"/>
       <c r="D92" s="34">
         <f>SUM(D15,D25, D38, D53, D67, D84, D89, D91)</f>
         <v>78</v>
@@ -8592,24 +8587,35 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="97.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="130" t="s">
+      <c r="A93" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="B93" s="131"/>
-      <c r="C93" s="132"/>
-      <c r="D93" s="58">
+      <c r="B93" s="134"/>
+      <c r="C93" s="135"/>
+      <c r="D93" s="56">
         <f>(D92/'Site Map QAHealth Rating'!G27)</f>
         <v>0.95121951219512191</v>
       </c>
-      <c r="E93" s="108" t="s">
+      <c r="E93" s="117" t="s">
         <v>374</v>
       </c>
-      <c r="F93" s="126"/>
-      <c r="G93" s="126"/>
+      <c r="F93" s="131"/>
+      <c r="G93" s="131"/>
     </row>
     <row r="94" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="A39:A52"/>
+    <mergeCell ref="C54:C63"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A92:C92"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="A84:C84"/>
@@ -8623,17 +8629,6 @@
     <mergeCell ref="A26:A37"/>
     <mergeCell ref="A54:A66"/>
     <mergeCell ref="A68:A83"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="A39:A52"/>
-    <mergeCell ref="C54:C63"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A92:C92"/>
   </mergeCells>
   <conditionalFormatting sqref="D39:D52 D54:D66 D68:D83 D85:D88 D90 D26:D37 D16:D24 D2:D14">
     <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
@@ -8674,8 +8669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8713,7 +8708,7 @@
       <c r="G1" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="58" t="s">
         <v>427</v>
       </c>
       <c r="I1" s="44" t="s">
@@ -8721,7 +8716,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="140" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -8746,7 +8741,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="139"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="28" t="s">
         <v>184</v>
       </c>
@@ -8769,7 +8764,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="139"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="28" t="s">
         <v>230</v>
       </c>
@@ -8792,7 +8787,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="139"/>
+      <c r="A5" s="140"/>
       <c r="B5" s="35" t="s">
         <v>149</v>
       </c>
@@ -8818,7 +8813,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="139"/>
+      <c r="A6" s="140"/>
       <c r="B6" s="28" t="s">
         <v>150</v>
       </c>
@@ -8844,8 +8839,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="139"/>
-      <c r="B7" s="139" t="s">
+      <c r="A7" s="140"/>
+      <c r="B7" s="140" t="s">
         <v>151</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -8867,8 +8862,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="28" t="s">
         <v>354</v>
       </c>
@@ -8888,8 +8883,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="28" t="s">
         <v>355</v>
       </c>
@@ -8912,11 +8907,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="146" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="148"/>
-      <c r="C10" s="149"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="27">
         <f>SUM(D2:D9)</f>
         <v>6</v>
@@ -8930,10 +8925,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="137" t="s">
         <v>317</v>
       </c>
       <c r="C11" s="36" t="s">
@@ -8955,8 +8950,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="118"/>
-      <c r="B12" s="144"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="36" t="s">
         <v>259</v>
       </c>
@@ -8976,8 +8971,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="118"/>
-      <c r="B13" s="113"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="36" t="s">
         <v>309</v>
       </c>
@@ -8997,8 +8992,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="118"/>
-      <c r="B14" s="113"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="36" t="s">
         <v>310</v>
       </c>
@@ -9018,8 +9013,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="118"/>
-      <c r="B15" s="113"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="36" t="s">
         <v>311</v>
       </c>
@@ -9039,8 +9034,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="118"/>
-      <c r="B16" s="113"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="36" t="s">
         <v>312</v>
       </c>
@@ -9060,8 +9055,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="118"/>
-      <c r="B17" s="113"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="36" t="s">
         <v>313</v>
       </c>
@@ -9081,8 +9076,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="118"/>
-      <c r="B18" s="113"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="36" t="s">
         <v>314</v>
       </c>
@@ -9102,8 +9097,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="118"/>
-      <c r="B19" s="113"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="36" t="s">
         <v>315</v>
       </c>
@@ -9123,8 +9118,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="118"/>
-      <c r="B20" s="116"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="36" t="s">
         <v>316</v>
       </c>
@@ -9144,7 +9139,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="118"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="52" t="s">
         <v>380</v>
       </c>
@@ -9167,11 +9162,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="118"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="123" t="s">
         <v>305</v>
       </c>
       <c r="D22" s="26">
@@ -9190,11 +9185,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="118"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="101"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="26">
         <v>1</v>
       </c>
@@ -9211,11 +9206,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="118"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="101"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="26">
         <v>0</v>
       </c>
@@ -9235,11 +9230,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="118"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="101"/>
+      <c r="C25" s="99"/>
       <c r="D25" s="26">
         <v>0</v>
       </c>
@@ -9259,11 +9254,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="118"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="C26" s="101"/>
+      <c r="C26" s="99"/>
       <c r="D26" s="26">
         <v>0</v>
       </c>
@@ -9283,11 +9278,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="118"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="101"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="26">
         <v>0</v>
       </c>
@@ -9307,7 +9302,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="118"/>
+      <c r="A28" s="123"/>
       <c r="B28" s="36" t="s">
         <v>157</v>
       </c>
@@ -9333,7 +9328,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="118"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="36" t="s">
         <v>158</v>
       </c>
@@ -9359,11 +9354,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="122" t="s">
+      <c r="A30" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="151"/>
-      <c r="C30" s="151"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="150"/>
       <c r="D30" s="27">
         <f>SUM(D11:D29)</f>
         <v>12</v>
@@ -9377,7 +9372,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="141" t="s">
         <v>236</v>
       </c>
       <c r="B31" s="28" t="s">
@@ -9400,11 +9395,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="141"/>
+      <c r="A32" s="142"/>
       <c r="B32" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="145" t="s">
+      <c r="C32" s="144" t="s">
         <v>305</v>
       </c>
       <c r="D32" s="26">
@@ -9423,11 +9418,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="141"/>
+      <c r="A33" s="142"/>
       <c r="B33" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="146"/>
+      <c r="C33" s="145"/>
       <c r="D33" s="26">
         <v>0</v>
       </c>
@@ -9444,11 +9439,11 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="141"/>
+      <c r="A34" s="142"/>
       <c r="B34" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="C34" s="146"/>
+      <c r="C34" s="145"/>
       <c r="D34" s="26">
         <v>1</v>
       </c>
@@ -9465,11 +9460,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="141"/>
+      <c r="A35" s="142"/>
       <c r="B35" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="C35" s="115"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="26">
         <v>0</v>
       </c>
@@ -9486,7 +9481,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="141"/>
+      <c r="A36" s="142"/>
       <c r="B36" s="28" t="s">
         <v>217</v>
       </c>
@@ -9509,7 +9504,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="141"/>
+      <c r="A37" s="142"/>
       <c r="B37" s="28" t="s">
         <v>371</v>
       </c>
@@ -9532,7 +9527,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="141"/>
+      <c r="A38" s="142"/>
       <c r="B38" s="28" t="s">
         <v>321</v>
       </c>
@@ -9555,7 +9550,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="141"/>
+      <c r="A39" s="142"/>
       <c r="B39" s="28" t="s">
         <v>393</v>
       </c>
@@ -9576,7 +9571,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="141"/>
+      <c r="A40" s="142"/>
       <c r="B40" s="28" t="s">
         <v>218</v>
       </c>
@@ -9599,11 +9594,11 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="142"/>
-      <c r="B41" s="56" t="s">
+      <c r="A41" s="143"/>
+      <c r="B41" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="28" t="s">
         <v>395</v>
       </c>
       <c r="D41" s="26">
@@ -9622,17 +9617,17 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="119"/>
-      <c r="C42" s="120"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="108"/>
       <c r="D42" s="27">
         <f>SUM(D31:D41)</f>
         <v>2</v>
       </c>
       <c r="E42" s="44"/>
-      <c r="F42" s="59"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="44"/>
       <c r="I42" s="44">
         <f>SUM(I31:I41)</f>
@@ -9640,7 +9635,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="111" t="s">
+      <c r="A43" s="116" t="s">
         <v>161</v>
       </c>
       <c r="B43" s="28" t="s">
@@ -9668,7 +9663,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="112"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="28" t="s">
         <v>165</v>
       </c>
@@ -9691,7 +9686,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="112"/>
+      <c r="A45" s="119"/>
       <c r="B45" s="28" t="s">
         <v>166</v>
       </c>
@@ -9714,7 +9709,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="112"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="28" t="s">
         <v>167</v>
       </c>
@@ -9737,7 +9732,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="112"/>
+      <c r="A47" s="119"/>
       <c r="B47" s="28" t="s">
         <v>168</v>
       </c>
@@ -9760,11 +9755,11 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="112"/>
+      <c r="A48" s="119"/>
       <c r="B48" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="111" t="s">
+      <c r="C48" s="116" t="s">
         <v>332</v>
       </c>
       <c r="D48" s="26">
@@ -9783,11 +9778,11 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="150"/>
+      <c r="A49" s="149"/>
       <c r="B49" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="116"/>
+      <c r="C49" s="115"/>
       <c r="D49" s="26">
         <v>1</v>
       </c>
@@ -9804,11 +9799,11 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="121" t="s">
+      <c r="A50" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="119"/>
-      <c r="C50" s="120"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="108"/>
       <c r="D50" s="27">
         <f>SUM(D43:D49)</f>
         <v>6</v>
@@ -9847,11 +9842,11 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="121" t="s">
+      <c r="A52" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="119"/>
-      <c r="C52" s="120"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="108"/>
       <c r="D52" s="27">
         <f>D51</f>
         <v>1</v>
@@ -9865,13 +9860,13 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="111" t="s">
+      <c r="A53" s="116" t="s">
         <v>163</v>
       </c>
       <c r="B53" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="C53" s="139" t="s">
+      <c r="C53" s="140" t="s">
         <v>333</v>
       </c>
       <c r="D53" s="26">
@@ -9890,11 +9885,11 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="113"/>
+      <c r="A54" s="114"/>
       <c r="B54" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="C54" s="101"/>
+      <c r="C54" s="99"/>
       <c r="D54" s="26">
         <v>1</v>
       </c>
@@ -9906,16 +9901,16 @@
         <f t="shared" ref="G54:G55" si="9">SUM(D54:E54)</f>
         <v>1</v>
       </c>
-      <c r="I54" s="44">
+      <c r="I54" s="165">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="116"/>
+      <c r="A55" s="115"/>
       <c r="B55" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="C55" s="101"/>
+      <c r="C55" s="99"/>
       <c r="D55" s="26">
         <v>0</v>
       </c>
@@ -9932,11 +9927,11 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="121" t="s">
+      <c r="A56" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="119"/>
-      <c r="C56" s="120"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="108"/>
       <c r="D56" s="27">
         <f>SUM(D53:D55)</f>
         <v>2</v>
@@ -9945,12 +9940,12 @@
       <c r="F56" s="44"/>
       <c r="G56" s="44"/>
       <c r="I56" s="44">
-        <f>SUM(I55)</f>
-        <v>1</v>
+        <f>SUM(I53:I55)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="143" t="s">
+      <c r="A57" s="137" t="s">
         <v>145</v>
       </c>
       <c r="B57" s="36" t="s">
@@ -9975,7 +9970,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="144"/>
+      <c r="A58" s="138"/>
       <c r="B58" s="36" t="s">
         <v>177</v>
       </c>
@@ -9998,7 +9993,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="152"/>
+      <c r="A59" s="139"/>
       <c r="B59" s="36" t="s">
         <v>178</v>
       </c>
@@ -10019,11 +10014,11 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="121" t="s">
+      <c r="A60" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="119"/>
-      <c r="C60" s="120"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="108"/>
       <c r="D60" s="27">
         <f>SUM(D57:D59)</f>
         <v>2</v>
@@ -10037,11 +10032,11 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="137" t="s">
+      <c r="A61" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="119"/>
-      <c r="C61" s="120"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="108"/>
       <c r="D61" s="34">
         <f>SUM(D10, D30, D42, D50, D52, D56, D60)</f>
         <v>31</v>
@@ -10059,30 +10054,24 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="104.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="130" t="s">
+      <c r="A62" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="131"/>
-      <c r="C62" s="132"/>
-      <c r="D62" s="58">
+      <c r="B62" s="134"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="56">
         <f>D61/'Site Map QAHealth Rating'!G35</f>
-        <v>0.62</v>
-      </c>
-      <c r="E62" s="108" t="s">
+        <v>0.59615384615384615</v>
+      </c>
+      <c r="E62" s="117" t="s">
         <v>374</v>
       </c>
-      <c r="F62" s="126"/>
-      <c r="G62" s="126"/>
+      <c r="F62" s="131"/>
+      <c r="G62" s="131"/>
     </row>
     <row r="63" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="A53:A55"/>
     <mergeCell ref="E62:G62"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A2:A9"/>
@@ -10099,6 +10088,12 @@
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A53:A55"/>
   </mergeCells>
   <conditionalFormatting sqref="D43:D49 D51 D53:D55 D57:D59 D2:D9 D31:D41 D11:D29">
     <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
@@ -10187,7 +10182,7 @@
       <c r="B2" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="152" t="s">
         <v>338</v>
       </c>
       <c r="D2" s="26">
@@ -10212,7 +10207,7 @@
       <c r="B3" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="113"/>
+      <c r="C3" s="114"/>
       <c r="D3" s="26">
         <v>0</v>
       </c>
@@ -10235,7 +10230,7 @@
       <c r="B4" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="C4" s="113"/>
+      <c r="C4" s="114"/>
       <c r="D4" s="26">
         <v>1</v>
       </c>
@@ -10258,7 +10253,7 @@
       <c r="B5" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="113"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="26">
         <v>1</v>
       </c>
@@ -10281,7 +10276,7 @@
       <c r="B6" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="C6" s="113"/>
+      <c r="C6" s="114"/>
       <c r="D6" s="26">
         <v>1</v>
       </c>
@@ -10304,7 +10299,7 @@
       <c r="B7" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="C7" s="113"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="26">
         <v>1</v>
       </c>
@@ -10321,11 +10316,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
       <c r="D8" s="34">
         <f>SUM(D2:D7)</f>
         <v>5</v>
@@ -10347,12 +10342,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="151" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="58">
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="56">
         <f>D8/6</f>
         <v>0.83333333333333337</v>
       </c>
@@ -10444,7 +10439,7 @@
       <c r="G1" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="64" t="s">
         <v>451</v>
       </c>
     </row>
@@ -10465,11 +10460,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="107"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
       <c r="D3" s="4">
         <f>SUM(D2)</f>
         <v>0</v>
@@ -10496,11 +10491,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="105"/>
       <c r="D5" s="4">
         <f>SUM(D4)</f>
         <v>0</v>
@@ -10511,7 +10506,7 @@
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="164" t="s">
+      <c r="A6" s="162" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -10532,7 +10527,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="165"/>
+      <c r="A7" s="163"/>
       <c r="B7" s="2" t="s">
         <v>160</v>
       </c>
@@ -10551,7 +10546,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="165"/>
+      <c r="A8" s="163"/>
       <c r="B8" s="2" t="s">
         <v>348</v>
       </c>
@@ -10572,7 +10567,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="165"/>
+      <c r="A9" s="163"/>
       <c r="B9" s="2" t="s">
         <v>349</v>
       </c>
@@ -10593,7 +10588,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="165"/>
+      <c r="A10" s="163"/>
       <c r="B10" s="2" t="s">
         <v>356</v>
       </c>
@@ -10614,7 +10609,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="165"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="2" t="s">
         <v>357</v>
       </c>
@@ -10635,7 +10630,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="165"/>
+      <c r="A12" s="163"/>
       <c r="B12" s="2" t="s">
         <v>358</v>
       </c>
@@ -10656,7 +10651,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="165"/>
+      <c r="A13" s="163"/>
       <c r="B13" s="2" t="s">
         <v>359</v>
       </c>
@@ -10677,7 +10672,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="165"/>
+      <c r="A14" s="163"/>
       <c r="B14" s="2" t="s">
         <v>360</v>
       </c>
@@ -10698,7 +10693,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="165"/>
+      <c r="A15" s="163"/>
       <c r="B15" s="2" t="s">
         <v>361</v>
       </c>
@@ -10719,7 +10714,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="165"/>
+      <c r="A16" s="163"/>
       <c r="B16" s="2" t="s">
         <v>362</v>
       </c>
@@ -10740,7 +10735,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="165"/>
+      <c r="A17" s="163"/>
       <c r="B17" s="2" t="s">
         <v>363</v>
       </c>
@@ -10759,7 +10754,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="165"/>
+      <c r="A18" s="163"/>
       <c r="B18" s="2" t="s">
         <v>364</v>
       </c>
@@ -10780,7 +10775,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="165"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="2" t="s">
         <v>365</v>
       </c>
@@ -10799,7 +10794,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="165"/>
+      <c r="A20" s="163"/>
       <c r="B20" s="2" t="s">
         <v>366</v>
       </c>
@@ -10818,7 +10813,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="165"/>
+      <c r="A21" s="163"/>
       <c r="B21" s="2" t="s">
         <v>367</v>
       </c>
@@ -10837,7 +10832,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="165"/>
+      <c r="A22" s="163"/>
       <c r="B22" s="2" t="s">
         <v>368</v>
       </c>
@@ -10856,7 +10851,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="165"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="2" t="s">
         <v>396</v>
       </c>
@@ -10877,7 +10872,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="165"/>
+      <c r="A24" s="163"/>
       <c r="B24" s="2" t="s">
         <v>397</v>
       </c>
@@ -10898,7 +10893,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="165"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="2" t="s">
         <v>398</v>
       </c>
@@ -10919,7 +10914,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="165"/>
+      <c r="A26" s="163"/>
       <c r="B26" s="2" t="s">
         <v>399</v>
       </c>
@@ -10940,7 +10935,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="166"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="2" t="s">
         <v>400</v>
       </c>
@@ -10961,7 +10956,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="61"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4">
@@ -10977,7 +10972,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="159" t="s">
         <v>428</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -11000,7 +10995,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="162"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="24" t="s">
         <v>402</v>
       </c>
@@ -11021,7 +11016,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="162"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="24" t="s">
         <v>403</v>
       </c>
@@ -11042,7 +11037,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="162"/>
+      <c r="A32" s="160"/>
       <c r="B32" s="24" t="s">
         <v>404</v>
       </c>
@@ -11063,7 +11058,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="162"/>
+      <c r="A33" s="160"/>
       <c r="B33" s="24" t="s">
         <v>405</v>
       </c>
@@ -11084,7 +11079,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="162"/>
+      <c r="A34" s="160"/>
       <c r="B34" s="24" t="s">
         <v>406</v>
       </c>
@@ -11105,7 +11100,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="163"/>
+      <c r="A35" s="161"/>
       <c r="B35" s="24" t="s">
         <v>407</v>
       </c>
@@ -11126,7 +11121,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="62"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4">
@@ -11142,7 +11137,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="159" t="s">
+      <c r="A37" s="157" t="s">
         <v>408</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -11165,7 +11160,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="159"/>
+      <c r="A38" s="157"/>
       <c r="B38" s="2" t="s">
         <v>410</v>
       </c>
@@ -11186,7 +11181,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="159"/>
+      <c r="A39" s="157"/>
       <c r="B39" s="2" t="s">
         <v>411</v>
       </c>
@@ -11207,7 +11202,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="159"/>
+      <c r="A40" s="157"/>
       <c r="B40" s="2" t="s">
         <v>426</v>
       </c>
@@ -11228,7 +11223,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="159"/>
+      <c r="A41" s="157"/>
       <c r="B41" s="2" t="s">
         <v>412</v>
       </c>
@@ -11249,7 +11244,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="63"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4">
@@ -11265,7 +11260,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="160" t="s">
+      <c r="A43" s="158" t="s">
         <v>413</v>
       </c>
       <c r="B43" s="24" t="s">
@@ -11288,7 +11283,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="160"/>
+      <c r="A44" s="158"/>
       <c r="B44" s="24" t="s">
         <v>415</v>
       </c>
@@ -11309,7 +11304,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="160"/>
+      <c r="A45" s="158"/>
       <c r="B45" s="24" t="s">
         <v>416</v>
       </c>
@@ -11330,7 +11325,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="160"/>
+      <c r="A46" s="158"/>
       <c r="B46" s="24" t="s">
         <v>417</v>
       </c>
@@ -11351,7 +11346,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="160"/>
+      <c r="A47" s="158"/>
       <c r="B47" s="24" t="s">
         <v>418</v>
       </c>
@@ -11372,7 +11367,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="160"/>
+      <c r="A48" s="158"/>
       <c r="B48" s="24" t="s">
         <v>419</v>
       </c>
@@ -11393,7 +11388,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="63"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4">
@@ -11409,7 +11404,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="159" t="s">
+      <c r="A50" s="157" t="s">
         <v>420</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -11432,7 +11427,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="159"/>
+      <c r="A51" s="157"/>
       <c r="B51" s="2" t="s">
         <v>422</v>
       </c>
@@ -11453,7 +11448,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="159"/>
+      <c r="A52" s="157"/>
       <c r="B52" s="2" t="s">
         <v>423</v>
       </c>
@@ -11474,7 +11469,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="159"/>
+      <c r="A53" s="157"/>
       <c r="B53" s="2" t="s">
         <v>425</v>
       </c>
@@ -11495,7 +11490,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="159"/>
+      <c r="A54" s="157"/>
       <c r="B54" s="2" t="s">
         <v>424</v>
       </c>
@@ -11516,11 +11511,11 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="105" t="s">
+      <c r="A55" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="106"/>
-      <c r="C55" s="107"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="105"/>
       <c r="D55" s="4">
         <f>SUM(D50:D54)</f>
         <v>0</v>
@@ -11534,11 +11529,11 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="158" t="s">
+      <c r="A56" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="106"/>
-      <c r="C56" s="107"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="105"/>
       <c r="D56" s="12">
         <f>SUM(D3,D5,D28,D36,D42,D49)</f>
         <v>16</v>
@@ -11556,20 +11551,20 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="102" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="155" t="s">
+      <c r="A57" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="156"/>
-      <c r="C57" s="157"/>
+      <c r="B57" s="154"/>
+      <c r="C57" s="155"/>
       <c r="D57" s="46">
         <f>D56/'Site Map QAHealth Rating'!G19</f>
         <v>0.35555555555555557</v>
       </c>
-      <c r="E57" s="108" t="s">
+      <c r="E57" s="117" t="s">
         <v>374</v>
       </c>
-      <c r="F57" s="126"/>
-      <c r="G57" s="126"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="131"/>
     </row>
     <row r="58" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
